--- a/Thesis_project/01_data-input/World Bank/WDI.xlsx
+++ b/Thesis_project/01_data-input/World Bank/WDI.xlsx
@@ -8,26 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\World Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439C4759-5D81-437C-80FE-134EE7845D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37510CA7-F484-4866-AA45-B669E08BE49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Data_clean" sheetId="3" r:id="rId2"/>
     <sheet name="Data_clean_AL" sheetId="4" r:id="rId3"/>
-    <sheet name="Series - Metadata" sheetId="2" r:id="rId4"/>
+    <sheet name="Data_clean_extra" sheetId="5" r:id="rId4"/>
+    <sheet name="Series - Metadata" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_clean!$A$1:$W$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data_clean_AL!$A$1:$W$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Data_clean_extra!$A$1:$W$45</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="182">
   <si>
     <t>MNE</t>
   </si>
@@ -11305,9 +11320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B79EAC1-1D22-4D0A-BBAD-84992765E482}">
   <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:W24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17929,7 +17944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97195DA-8BD9-4B76-86A6-3897A1E86E23}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -19224,6 +19239,3221 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AB792B-C123-4758-888E-507042443064}">
+  <dimension ref="A1:W45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="96.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2001</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2002</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2003</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2004</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2005</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2006</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2007</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2008</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2009</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2011</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2012</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2013</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2014</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2015</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="U1" s="3">
+        <v>2017</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="W1" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>1429767</v>
+      </c>
+      <c r="E2">
+        <v>1446102</v>
+      </c>
+      <c r="F2">
+        <v>1467568</v>
+      </c>
+      <c r="G2">
+        <v>1479854</v>
+      </c>
+      <c r="H2">
+        <v>1479078</v>
+      </c>
+      <c r="I2">
+        <v>1474492</v>
+      </c>
+      <c r="J2">
+        <v>1474993</v>
+      </c>
+      <c r="K2">
+        <v>1482648</v>
+      </c>
+      <c r="L2">
+        <v>1490660</v>
+      </c>
+      <c r="M2">
+        <v>1463957</v>
+      </c>
+      <c r="N2">
+        <v>1464249</v>
+      </c>
+      <c r="O2">
+        <v>1428367</v>
+      </c>
+      <c r="P2">
+        <v>1416274</v>
+      </c>
+      <c r="Q2">
+        <v>1386578</v>
+      </c>
+      <c r="R2">
+        <v>1400680</v>
+      </c>
+      <c r="S2">
+        <v>1385813</v>
+      </c>
+      <c r="T2">
+        <v>1365760</v>
+      </c>
+      <c r="U2">
+        <v>1351075</v>
+      </c>
+      <c r="V2">
+        <v>1330417</v>
+      </c>
+      <c r="W2">
+        <v>1344543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <v>32.448</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3">
+        <v>35.488</v>
+      </c>
+      <c r="K3">
+        <v>32.356999999999999</v>
+      </c>
+      <c r="L3">
+        <v>27.375</v>
+      </c>
+      <c r="M3">
+        <v>26.628</v>
+      </c>
+      <c r="N3">
+        <v>28.728000000000002</v>
+      </c>
+      <c r="O3">
+        <v>28.303999999999998</v>
+      </c>
+      <c r="P3">
+        <v>28.922999999999998</v>
+      </c>
+      <c r="Q3">
+        <v>26.634</v>
+      </c>
+      <c r="R3">
+        <v>27.097000000000001</v>
+      </c>
+      <c r="S3">
+        <v>28.347999999999999</v>
+      </c>
+      <c r="T3">
+        <v>27.09</v>
+      </c>
+      <c r="U3">
+        <v>25.506</v>
+      </c>
+      <c r="V3">
+        <v>22.605</v>
+      </c>
+      <c r="W3">
+        <v>22.597999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4">
+        <v>9.6809999999999992</v>
+      </c>
+      <c r="L4">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="M4">
+        <v>9.8620000000000001</v>
+      </c>
+      <c r="N4">
+        <v>15.456</v>
+      </c>
+      <c r="O4">
+        <v>14.643000000000001</v>
+      </c>
+      <c r="P4">
+        <v>19.096</v>
+      </c>
+      <c r="Q4">
+        <v>16.920999999999999</v>
+      </c>
+      <c r="R4">
+        <v>21.06</v>
+      </c>
+      <c r="S4">
+        <v>20.454999999999998</v>
+      </c>
+      <c r="T4">
+        <v>21.364000000000001</v>
+      </c>
+      <c r="U4">
+        <v>16.706</v>
+      </c>
+      <c r="V4">
+        <v>15.369</v>
+      </c>
+      <c r="W4">
+        <v>13.266999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>17.030999999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>37.101999999999997</v>
+      </c>
+      <c r="K5">
+        <v>37.802</v>
+      </c>
+      <c r="L5">
+        <v>28.39</v>
+      </c>
+      <c r="M5">
+        <v>31.119</v>
+      </c>
+      <c r="N5">
+        <v>31.001000000000001</v>
+      </c>
+      <c r="O5">
+        <v>30.925000000000001</v>
+      </c>
+      <c r="P5">
+        <v>27.751999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>29.445</v>
+      </c>
+      <c r="R5">
+        <v>30.5</v>
+      </c>
+      <c r="S5">
+        <v>28.928000000000001</v>
+      </c>
+      <c r="T5">
+        <v>26.292000000000002</v>
+      </c>
+      <c r="U5">
+        <v>19.716000000000001</v>
+      </c>
+      <c r="V5">
+        <v>20.132999999999999</v>
+      </c>
+      <c r="W5">
+        <v>15.005000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>6.6449999999999996</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6">
+        <v>25.957999999999998</v>
+      </c>
+      <c r="K6">
+        <v>30.035</v>
+      </c>
+      <c r="L6">
+        <v>24.521999999999998</v>
+      </c>
+      <c r="M6">
+        <v>25.047999999999998</v>
+      </c>
+      <c r="N6">
+        <v>28.640999999999998</v>
+      </c>
+      <c r="O6">
+        <v>29.117999999999999</v>
+      </c>
+      <c r="P6">
+        <v>29.744</v>
+      </c>
+      <c r="Q6">
+        <v>29.244</v>
+      </c>
+      <c r="R6">
+        <v>28.065999999999999</v>
+      </c>
+      <c r="S6">
+        <v>29.199000000000002</v>
+      </c>
+      <c r="T6">
+        <v>26.178999999999998</v>
+      </c>
+      <c r="U6">
+        <v>21.693000000000001</v>
+      </c>
+      <c r="V6">
+        <v>18.902000000000001</v>
+      </c>
+      <c r="W6">
+        <v>16.376999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7">
+        <v>31.11</v>
+      </c>
+      <c r="K7">
+        <v>28.984000000000002</v>
+      </c>
+      <c r="L7">
+        <v>23.405000000000001</v>
+      </c>
+      <c r="M7">
+        <v>24.068000000000001</v>
+      </c>
+      <c r="N7">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="O7">
+        <v>27.582000000000001</v>
+      </c>
+      <c r="P7">
+        <v>28.01</v>
+      </c>
+      <c r="Q7">
+        <v>27.49</v>
+      </c>
+      <c r="R7">
+        <v>27.516999999999999</v>
+      </c>
+      <c r="S7">
+        <v>27.695</v>
+      </c>
+      <c r="T7">
+        <v>25.408000000000001</v>
+      </c>
+      <c r="U7">
+        <v>20.527000000000001</v>
+      </c>
+      <c r="V7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="W7">
+        <v>15.692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8">
+        <v>25.483000000000001</v>
+      </c>
+      <c r="E8">
+        <v>26.489000000000001</v>
+      </c>
+      <c r="F8">
+        <v>27.431999999999999</v>
+      </c>
+      <c r="G8">
+        <v>28.416</v>
+      </c>
+      <c r="H8">
+        <v>29.292999999999999</v>
+      </c>
+      <c r="I8">
+        <v>30.213000000000001</v>
+      </c>
+      <c r="J8">
+        <v>31.11</v>
+      </c>
+      <c r="K8">
+        <v>28.98</v>
+      </c>
+      <c r="L8">
+        <v>23.41</v>
+      </c>
+      <c r="M8">
+        <v>24.07</v>
+      </c>
+      <c r="N8">
+        <v>27.31</v>
+      </c>
+      <c r="O8">
+        <v>27.58</v>
+      </c>
+      <c r="P8">
+        <v>28.01</v>
+      </c>
+      <c r="Q8">
+        <v>27.49</v>
+      </c>
+      <c r="R8">
+        <v>27.52</v>
+      </c>
+      <c r="S8">
+        <v>27.69</v>
+      </c>
+      <c r="T8">
+        <v>25.41</v>
+      </c>
+      <c r="U8">
+        <v>20.53</v>
+      </c>
+      <c r="V8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="W8">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>8141</v>
+      </c>
+      <c r="E9">
+        <v>9058</v>
+      </c>
+      <c r="F9">
+        <v>-13313</v>
+      </c>
+      <c r="G9">
+        <v>-27396</v>
+      </c>
+      <c r="H9">
+        <v>-68032</v>
+      </c>
+      <c r="I9">
+        <v>-37107</v>
+      </c>
+      <c r="J9">
+        <v>-38642</v>
+      </c>
+      <c r="K9">
+        <v>-65367</v>
+      </c>
+      <c r="L9">
+        <v>-68177</v>
+      </c>
+      <c r="M9">
+        <v>-68227</v>
+      </c>
+      <c r="N9">
+        <v>-67267</v>
+      </c>
+      <c r="O9">
+        <v>-64918</v>
+      </c>
+      <c r="P9">
+        <v>-66436</v>
+      </c>
+      <c r="Q9">
+        <v>-37030</v>
+      </c>
+      <c r="R9">
+        <v>-35709</v>
+      </c>
+      <c r="S9">
+        <v>-33976</v>
+      </c>
+      <c r="T9">
+        <v>-32195</v>
+      </c>
+      <c r="U9">
+        <v>-30669</v>
+      </c>
+      <c r="V9">
+        <v>-29154</v>
+      </c>
+      <c r="W9">
+        <v>-27848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10">
+        <v>69.225999999999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10">
+        <v>61.741</v>
+      </c>
+      <c r="K10">
+        <v>61.484000000000002</v>
+      </c>
+      <c r="L10">
+        <v>60.575000000000003</v>
+      </c>
+      <c r="M10">
+        <v>59.14</v>
+      </c>
+      <c r="N10">
+        <v>59.298000000000002</v>
+      </c>
+      <c r="O10">
+        <v>58.417999999999999</v>
+      </c>
+      <c r="P10">
+        <v>58.573</v>
+      </c>
+      <c r="Q10">
+        <v>56.774000000000001</v>
+      </c>
+      <c r="R10">
+        <v>57.686999999999998</v>
+      </c>
+      <c r="S10">
+        <v>57.265000000000001</v>
+      </c>
+      <c r="T10">
+        <v>55.195999999999998</v>
+      </c>
+      <c r="U10">
+        <v>54.58</v>
+      </c>
+      <c r="V10">
+        <v>54.182000000000002</v>
+      </c>
+      <c r="W10">
+        <v>53.338000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <v>57.305999999999997</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11">
+        <v>63.021999999999998</v>
+      </c>
+      <c r="K11">
+        <v>28.291</v>
+      </c>
+      <c r="L11">
+        <v>30.558</v>
+      </c>
+      <c r="M11">
+        <v>29.85</v>
+      </c>
+      <c r="N11">
+        <v>29.282</v>
+      </c>
+      <c r="O11">
+        <v>27.497</v>
+      </c>
+      <c r="P11">
+        <v>27.824999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>27.219000000000001</v>
+      </c>
+      <c r="R11">
+        <v>25.338999999999999</v>
+      </c>
+      <c r="S11">
+        <v>25.375</v>
+      </c>
+      <c r="T11">
+        <v>24.344000000000001</v>
+      </c>
+      <c r="U11">
+        <v>23.872</v>
+      </c>
+      <c r="V11">
+        <v>21.145</v>
+      </c>
+      <c r="W11">
+        <v>22.010999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>68.05</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <v>72.945999999999998</v>
+      </c>
+      <c r="K12">
+        <v>79.668000000000006</v>
+      </c>
+      <c r="L12">
+        <v>80.465000000000003</v>
+      </c>
+      <c r="M12">
+        <v>81.256</v>
+      </c>
+      <c r="N12">
+        <v>79.745000000000005</v>
+      </c>
+      <c r="O12">
+        <v>83.706999999999994</v>
+      </c>
+      <c r="P12">
+        <v>79.757999999999996</v>
+      </c>
+      <c r="Q12">
+        <v>81.242000000000004</v>
+      </c>
+      <c r="R12">
+        <v>81.385000000000005</v>
+      </c>
+      <c r="S12">
+        <v>78.957999999999998</v>
+      </c>
+      <c r="T12">
+        <v>78.921999999999997</v>
+      </c>
+      <c r="U12">
+        <v>77.475999999999999</v>
+      </c>
+      <c r="V12">
+        <v>76.563999999999993</v>
+      </c>
+      <c r="W12">
+        <v>74.596999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13">
+        <v>29.727248601710542</v>
+      </c>
+      <c r="E13">
+        <v>30.979632775485349</v>
+      </c>
+      <c r="F13">
+        <v>30.822118295282745</v>
+      </c>
+      <c r="G13">
+        <v>29.689360528506032</v>
+      </c>
+      <c r="H13">
+        <v>29.895710112686487</v>
+      </c>
+      <c r="I13">
+        <v>28.73978220032684</v>
+      </c>
+      <c r="J13">
+        <v>25.276816599680629</v>
+      </c>
+      <c r="K13">
+        <v>29.841281246991674</v>
+      </c>
+      <c r="L13">
+        <v>31.695016000733812</v>
+      </c>
+      <c r="M13">
+        <v>23.648498803178597</v>
+      </c>
+      <c r="N13">
+        <v>19.708762239122024</v>
+      </c>
+      <c r="O13">
+        <v>22.199889582132954</v>
+      </c>
+      <c r="P13">
+        <v>22.436411587028278</v>
+      </c>
+      <c r="Q13">
+        <v>21.233580546727453</v>
+      </c>
+      <c r="R13">
+        <v>22.525864222317473</v>
+      </c>
+      <c r="S13">
+        <v>21.689589849444179</v>
+      </c>
+      <c r="T13">
+        <v>22.714968277823587</v>
+      </c>
+      <c r="U13">
+        <v>24.634595014446404</v>
+      </c>
+      <c r="V13">
+        <v>24.410120627180028</v>
+      </c>
+      <c r="W13">
+        <v>24.84379505656565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14">
+        <v>3513642500</v>
+      </c>
+      <c r="E14">
+        <v>3927651500</v>
+      </c>
+      <c r="F14">
+        <v>4309667800</v>
+      </c>
+      <c r="G14">
+        <v>4372650800</v>
+      </c>
+      <c r="H14">
+        <v>4782759800</v>
+      </c>
+      <c r="I14">
+        <v>5072668900</v>
+      </c>
+      <c r="J14">
+        <v>5069825400</v>
+      </c>
+      <c r="K14">
+        <v>6728569900</v>
+      </c>
+      <c r="L14">
+        <v>8088355600</v>
+      </c>
+      <c r="M14">
+        <v>5864477800</v>
+      </c>
+      <c r="N14">
+        <v>4999118200</v>
+      </c>
+      <c r="O14">
+        <v>5823311200</v>
+      </c>
+      <c r="P14">
+        <v>5883435100</v>
+      </c>
+      <c r="Q14">
+        <v>5686088300</v>
+      </c>
+      <c r="R14">
+        <v>6162785800</v>
+      </c>
+      <c r="S14">
+        <v>6274568000</v>
+      </c>
+      <c r="T14">
+        <v>6874709000</v>
+      </c>
+      <c r="U14">
+        <v>7834473000</v>
+      </c>
+      <c r="V14">
+        <v>8285227000.000001</v>
+      </c>
+      <c r="W14">
+        <v>8890322000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15">
+        <v>0.550490021705627</v>
+      </c>
+      <c r="S15">
+        <v>0.82449001073837302</v>
+      </c>
+      <c r="T15">
+        <v>1.6755399703979501</v>
+      </c>
+      <c r="U15">
+        <v>1.3244878053665201</v>
+      </c>
+      <c r="V15">
+        <v>1.12071001529694</v>
+      </c>
+      <c r="W15">
+        <v>1.12487351894379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16">
+        <v>31.113430023193398</v>
+      </c>
+      <c r="O16">
+        <v>32.742359161377003</v>
+      </c>
+      <c r="P16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16">
+        <v>59.573890686035199</v>
+      </c>
+      <c r="S16">
+        <v>60.8295707702637</v>
+      </c>
+      <c r="T16">
+        <v>62.3772583007812</v>
+      </c>
+      <c r="U16">
+        <v>61.717128753662102</v>
+      </c>
+      <c r="V16">
+        <v>63.506538391113303</v>
+      </c>
+      <c r="W16">
+        <v>62.900218963622997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17">
+        <v>9.2254295349121094</v>
+      </c>
+      <c r="O17">
+        <v>9.8478603363037092</v>
+      </c>
+      <c r="P17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>68</v>
+      </c>
+      <c r="R17">
+        <v>11.300840377807599</v>
+      </c>
+      <c r="S17">
+        <v>10.5173501968384</v>
+      </c>
+      <c r="T17">
+        <v>11.0858602523804</v>
+      </c>
+      <c r="U17">
+        <v>7.1863975524902299</v>
+      </c>
+      <c r="V17">
+        <v>10.8351097106934</v>
+      </c>
+      <c r="W17">
+        <v>6.9968748092651403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18">
+        <v>73.099632263183594</v>
+      </c>
+      <c r="O18">
+        <v>74.349716186523395</v>
+      </c>
+      <c r="P18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18">
+        <v>78.045379638671903</v>
+      </c>
+      <c r="S18">
+        <v>79.873451232910199</v>
+      </c>
+      <c r="T18">
+        <v>83.749107360839801</v>
+      </c>
+      <c r="U18">
+        <v>81.959701538085895</v>
+      </c>
+      <c r="V18">
+        <v>87.606781005859403</v>
+      </c>
+      <c r="W18">
+        <v>82.1134033203125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19">
+        <v>9.2254295349121094</v>
+      </c>
+      <c r="O19">
+        <v>9.8478603363037092</v>
+      </c>
+      <c r="P19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19">
+        <v>11.300840377807599</v>
+      </c>
+      <c r="S19">
+        <v>11.4720802307129</v>
+      </c>
+      <c r="T19">
+        <v>11.8764600753784</v>
+      </c>
+      <c r="U19">
+        <v>8.5240726470947301</v>
+      </c>
+      <c r="V19">
+        <v>11.8616600036621</v>
+      </c>
+      <c r="W19">
+        <v>8.04687404632568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20">
+        <v>56.919528961181598</v>
+      </c>
+      <c r="O20">
+        <v>56.832649230957003</v>
+      </c>
+      <c r="P20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>68</v>
+      </c>
+      <c r="R20" t="s">
+        <v>68</v>
+      </c>
+      <c r="S20">
+        <v>60.898494720458999</v>
+      </c>
+      <c r="T20">
+        <v>81.165557861328097</v>
+      </c>
+      <c r="U20">
+        <v>62.306121826171903</v>
+      </c>
+      <c r="V20">
+        <v>81.362892150878906</v>
+      </c>
+      <c r="W20">
+        <v>63.3923149108887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21">
+        <v>5.7286801338195801</v>
+      </c>
+      <c r="O21">
+        <v>6.1705298423767099</v>
+      </c>
+      <c r="P21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>68</v>
+      </c>
+      <c r="R21">
+        <v>7.8253698348998997</v>
+      </c>
+      <c r="S21">
+        <v>7.5491600036621103</v>
+      </c>
+      <c r="T21">
+        <v>8.3772802352905291</v>
+      </c>
+      <c r="U21">
+        <v>7.1863975524902299</v>
+      </c>
+      <c r="V21">
+        <v>7.7476501464843803</v>
+      </c>
+      <c r="W21">
+        <v>6.9968748092651403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22">
+        <v>9.8360002040862995E-2</v>
+      </c>
+      <c r="T22">
+        <v>0.16581000387668601</v>
+      </c>
+      <c r="U22">
+        <v>0.162282004952431</v>
+      </c>
+      <c r="V22">
+        <v>0.19050000607967399</v>
+      </c>
+      <c r="W22">
+        <v>0.231822639703751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23">
+        <v>74.495999999999995</v>
+      </c>
+      <c r="E23">
+        <v>75.06</v>
+      </c>
+      <c r="F23">
+        <v>74.611999999999995</v>
+      </c>
+      <c r="G23">
+        <v>75.781999999999996</v>
+      </c>
+      <c r="H23">
+        <v>76.132999999999996</v>
+      </c>
+      <c r="I23">
+        <v>75.42</v>
+      </c>
+      <c r="J23">
+        <v>76.247</v>
+      </c>
+      <c r="K23">
+        <v>76.161000000000001</v>
+      </c>
+      <c r="L23">
+        <v>76.837999999999994</v>
+      </c>
+      <c r="M23">
+        <v>76.975999999999999</v>
+      </c>
+      <c r="N23">
+        <v>77.072999999999993</v>
+      </c>
+      <c r="O23">
+        <v>77.007000000000005</v>
+      </c>
+      <c r="P23">
+        <v>77.191000000000003</v>
+      </c>
+      <c r="Q23">
+        <v>76.33</v>
+      </c>
+      <c r="R23">
+        <v>75.659000000000006</v>
+      </c>
+      <c r="S23">
+        <v>76.182000000000002</v>
+      </c>
+      <c r="T23">
+        <v>76.808000000000007</v>
+      </c>
+      <c r="U23">
+        <v>76.935000000000002</v>
+      </c>
+      <c r="V23">
+        <v>77.093000000000004</v>
+      </c>
+      <c r="W23">
+        <v>77.241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="E24">
+        <v>1.232</v>
+      </c>
+      <c r="F24">
+        <v>1.23</v>
+      </c>
+      <c r="G24">
+        <v>1.22</v>
+      </c>
+      <c r="H24">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="I24">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="J24">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="K24">
+        <v>1.252</v>
+      </c>
+      <c r="L24">
+        <v>1.276</v>
+      </c>
+      <c r="M24">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="N24">
+        <v>1.276</v>
+      </c>
+      <c r="O24">
+        <v>1.216</v>
+      </c>
+      <c r="P24">
+        <v>1.29</v>
+      </c>
+      <c r="Q24">
+        <v>1.276</v>
+      </c>
+      <c r="R24">
+        <v>1.262</v>
+      </c>
+      <c r="S24">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="T24">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="U24">
+        <v>1.355</v>
+      </c>
+      <c r="V24">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="W24">
+        <v>1.3680000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" t="s">
+        <v>68</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>68</v>
+      </c>
+      <c r="R25" t="s">
+        <v>68</v>
+      </c>
+      <c r="S25" t="s">
+        <v>68</v>
+      </c>
+      <c r="T25" t="s">
+        <v>68</v>
+      </c>
+      <c r="U25" t="s">
+        <v>68</v>
+      </c>
+      <c r="V25" t="s">
+        <v>68</v>
+      </c>
+      <c r="W25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>45.965000000000003</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26">
+        <v>35.878</v>
+      </c>
+      <c r="Q26">
+        <v>35.765999999999998</v>
+      </c>
+      <c r="R26">
+        <v>30.233000000000001</v>
+      </c>
+      <c r="S26">
+        <v>31.678999999999998</v>
+      </c>
+      <c r="T26">
+        <v>30.263999999999999</v>
+      </c>
+      <c r="U26">
+        <v>27.559000000000001</v>
+      </c>
+      <c r="V26">
+        <v>29.693000000000001</v>
+      </c>
+      <c r="W26">
+        <v>32.612000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>11.629</v>
+      </c>
+      <c r="E27">
+        <v>57</v>
+      </c>
+      <c r="F27">
+        <v>55</v>
+      </c>
+      <c r="G27">
+        <v>49.7</v>
+      </c>
+      <c r="H27">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="I27">
+        <v>41.4</v>
+      </c>
+      <c r="J27">
+        <v>44.9</v>
+      </c>
+      <c r="K27">
+        <v>46.3</v>
+      </c>
+      <c r="L27">
+        <v>47.5</v>
+      </c>
+      <c r="M27">
+        <v>45.4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27">
+        <v>30.879000000000001</v>
+      </c>
+      <c r="Q27">
+        <v>29.765999999999998</v>
+      </c>
+      <c r="R27">
+        <v>35.264000000000003</v>
+      </c>
+      <c r="S27">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="T27">
+        <v>27.491</v>
+      </c>
+      <c r="U27">
+        <v>30.344000000000001</v>
+      </c>
+      <c r="V27">
+        <v>27.760999999999999</v>
+      </c>
+      <c r="W27">
+        <v>25.068999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>68</v>
+      </c>
+      <c r="R28" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" t="s">
+        <v>68</v>
+      </c>
+      <c r="T28" t="s">
+        <v>68</v>
+      </c>
+      <c r="U28" t="s">
+        <v>68</v>
+      </c>
+      <c r="V28" t="s">
+        <v>68</v>
+      </c>
+      <c r="W28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <v>-9176</v>
+      </c>
+      <c r="E29">
+        <v>-1995</v>
+      </c>
+      <c r="F29">
+        <v>-29565</v>
+      </c>
+      <c r="G29">
+        <v>-27077</v>
+      </c>
+      <c r="H29">
+        <v>-30715</v>
+      </c>
+      <c r="I29">
+        <v>-33861</v>
+      </c>
+      <c r="J29">
+        <v>-32364</v>
+      </c>
+      <c r="K29">
+        <v>-32547</v>
+      </c>
+      <c r="L29">
+        <v>-34210</v>
+      </c>
+      <c r="M29">
+        <v>-33429</v>
+      </c>
+      <c r="N29">
+        <v>-31889</v>
+      </c>
+      <c r="O29">
+        <v>-3033</v>
+      </c>
+      <c r="P29">
+        <v>-15323</v>
+      </c>
+      <c r="Q29">
+        <v>-40468</v>
+      </c>
+      <c r="R29">
+        <v>-56637</v>
+      </c>
+      <c r="S29">
+        <v>-14819</v>
+      </c>
+      <c r="T29">
+        <v>-31383</v>
+      </c>
+      <c r="U29">
+        <v>-33495</v>
+      </c>
+      <c r="V29">
+        <v>-34137</v>
+      </c>
+      <c r="W29">
+        <v>-33469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30">
+        <v>61.018999999999998</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30">
+        <v>50.438000000000002</v>
+      </c>
+      <c r="Q30">
+        <v>51.765999999999998</v>
+      </c>
+      <c r="R30">
+        <v>52.223999999999997</v>
+      </c>
+      <c r="S30">
+        <v>45.442</v>
+      </c>
+      <c r="T30">
+        <v>45.76</v>
+      </c>
+      <c r="U30">
+        <v>50.9</v>
+      </c>
+      <c r="V30">
+        <v>50.363</v>
+      </c>
+      <c r="W30">
+        <v>46.167000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>37.277999999999999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" t="s">
+        <v>68</v>
+      </c>
+      <c r="N31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31">
+        <v>15.845000000000001</v>
+      </c>
+      <c r="Q31">
+        <v>18.757000000000001</v>
+      </c>
+      <c r="R31">
+        <v>18.599</v>
+      </c>
+      <c r="S31">
+        <v>15.699</v>
+      </c>
+      <c r="T31">
+        <v>16.785</v>
+      </c>
+      <c r="U31">
+        <v>16.989000000000001</v>
+      </c>
+      <c r="V31">
+        <v>14.28</v>
+      </c>
+      <c r="W31">
+        <v>15.372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32">
+        <v>83.05</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32" t="s">
+        <v>68</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32">
+        <v>69.581999999999994</v>
+      </c>
+      <c r="Q32">
+        <v>73.024000000000001</v>
+      </c>
+      <c r="R32">
+        <v>70.216999999999999</v>
+      </c>
+      <c r="S32">
+        <v>63.195</v>
+      </c>
+      <c r="T32">
+        <v>65.13</v>
+      </c>
+      <c r="U32">
+        <v>71.55</v>
+      </c>
+      <c r="V32">
+        <v>79.962000000000003</v>
+      </c>
+      <c r="W32">
+        <v>77.022999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33">
+        <v>37.283677432066213</v>
+      </c>
+      <c r="M33">
+        <v>32.619616274023031</v>
+      </c>
+      <c r="N33">
+        <v>33.128487046606416</v>
+      </c>
+      <c r="O33">
+        <v>36.057344491894469</v>
+      </c>
+      <c r="P33">
+        <v>31.901721686107571</v>
+      </c>
+      <c r="Q33">
+        <v>29.997858550771276</v>
+      </c>
+      <c r="R33">
+        <v>27.846000869468057</v>
+      </c>
+      <c r="S33">
+        <v>30.432468640423881</v>
+      </c>
+      <c r="T33">
+        <v>33.522000254750864</v>
+      </c>
+      <c r="U33">
+        <v>34.692649488960512</v>
+      </c>
+      <c r="V33">
+        <v>36.29454212914866</v>
+      </c>
+      <c r="W33">
+        <v>34.558199545022426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34">
+        <v>1318947000</v>
+      </c>
+      <c r="M34">
+        <v>1177712000</v>
+      </c>
+      <c r="N34">
+        <v>1335406000</v>
+      </c>
+      <c r="O34">
+        <v>1642738000</v>
+      </c>
+      <c r="P34">
+        <v>1530413000</v>
+      </c>
+      <c r="Q34">
+        <v>1521291000</v>
+      </c>
+      <c r="R34">
+        <v>1482826000</v>
+      </c>
+      <c r="S34">
+        <v>1726867000</v>
+      </c>
+      <c r="T34">
+        <v>2023814000</v>
+      </c>
+      <c r="U34">
+        <v>2205223000</v>
+      </c>
+      <c r="V34">
+        <v>2421398000</v>
+      </c>
+      <c r="W34">
+        <v>2438486000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35">
+        <v>74.072000000000003</v>
+      </c>
+      <c r="E35">
+        <v>74.394000000000005</v>
+      </c>
+      <c r="F35">
+        <v>74.676000000000002</v>
+      </c>
+      <c r="G35">
+        <v>74.968000000000004</v>
+      </c>
+      <c r="H35">
+        <v>75.304000000000002</v>
+      </c>
+      <c r="I35">
+        <v>75.616</v>
+      </c>
+      <c r="J35">
+        <v>75.635999999999996</v>
+      </c>
+      <c r="K35">
+        <v>76.516000000000005</v>
+      </c>
+      <c r="L35">
+        <v>77.391999999999996</v>
+      </c>
+      <c r="M35">
+        <v>77.665000000000006</v>
+      </c>
+      <c r="N35">
+        <v>77.63</v>
+      </c>
+      <c r="O35">
+        <v>77.739999999999995</v>
+      </c>
+      <c r="P35">
+        <v>78.28</v>
+      </c>
+      <c r="Q35">
+        <v>78.587000000000003</v>
+      </c>
+      <c r="R35">
+        <v>78.88</v>
+      </c>
+      <c r="S35">
+        <v>78.921999999999997</v>
+      </c>
+      <c r="T35">
+        <v>78.980999999999995</v>
+      </c>
+      <c r="U35">
+        <v>78.783000000000001</v>
+      </c>
+      <c r="V35">
+        <v>78.695999999999998</v>
+      </c>
+      <c r="W35">
+        <v>79.022000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36">
+        <v>2.66</v>
+      </c>
+      <c r="E36">
+        <v>2.6219999999999999</v>
+      </c>
+      <c r="F36">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="G36">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H36">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="I36">
+        <v>2.609</v>
+      </c>
+      <c r="J36">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="K36">
+        <v>2.3570000000000002</v>
+      </c>
+      <c r="L36">
+        <v>2.444</v>
+      </c>
+      <c r="M36">
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="N36">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="O36">
+        <v>1.992</v>
+      </c>
+      <c r="P36">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="Q36">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="R36">
+        <v>1.871</v>
+      </c>
+      <c r="S36">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="T36">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="U36">
+        <v>1.649</v>
+      </c>
+      <c r="V36">
+        <v>1.605</v>
+      </c>
+      <c r="W36">
+        <v>1.546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37">
+        <v>1365077</v>
+      </c>
+      <c r="E37">
+        <v>1327247</v>
+      </c>
+      <c r="F37">
+        <v>1317631</v>
+      </c>
+      <c r="G37">
+        <v>1324375</v>
+      </c>
+      <c r="H37">
+        <v>1280253</v>
+      </c>
+      <c r="I37">
+        <v>1278113</v>
+      </c>
+      <c r="J37">
+        <v>1358014</v>
+      </c>
+      <c r="K37">
+        <v>1378453</v>
+      </c>
+      <c r="L37">
+        <v>1397558</v>
+      </c>
+      <c r="M37">
+        <v>1424025</v>
+      </c>
+      <c r="N37">
+        <v>1487441</v>
+      </c>
+      <c r="O37">
+        <v>1513085</v>
+      </c>
+      <c r="P37">
+        <v>1524520</v>
+      </c>
+      <c r="Q37">
+        <v>1536144</v>
+      </c>
+      <c r="R37">
+        <v>1626652</v>
+      </c>
+      <c r="S37">
+        <v>1628800</v>
+      </c>
+      <c r="T37">
+        <v>1595416</v>
+      </c>
+      <c r="U37">
+        <v>1525974</v>
+      </c>
+      <c r="V37">
+        <v>1465932</v>
+      </c>
+      <c r="W37">
+        <v>1487366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>24.847999999999999</v>
+      </c>
+      <c r="E38">
+        <v>24.773</v>
+      </c>
+      <c r="F38">
+        <v>25.573</v>
+      </c>
+      <c r="G38">
+        <v>25.138000000000002</v>
+      </c>
+      <c r="H38">
+        <v>26.585000000000001</v>
+      </c>
+      <c r="I38">
+        <v>26.443000000000001</v>
+      </c>
+      <c r="J38">
+        <v>23.602</v>
+      </c>
+      <c r="K38">
+        <v>22.853000000000002</v>
+      </c>
+      <c r="L38">
+        <v>20.542999999999999</v>
+      </c>
+      <c r="M38">
+        <v>21.234000000000002</v>
+      </c>
+      <c r="N38">
+        <v>19.452999999999999</v>
+      </c>
+      <c r="O38">
+        <v>19.724</v>
+      </c>
+      <c r="P38">
+        <v>19.282</v>
+      </c>
+      <c r="Q38">
+        <v>18.626999999999999</v>
+      </c>
+      <c r="R38">
+        <v>16.844999999999999</v>
+      </c>
+      <c r="S38">
+        <v>15.768000000000001</v>
+      </c>
+      <c r="T38">
+        <v>16.271999999999998</v>
+      </c>
+      <c r="U38">
+        <v>16.922000000000001</v>
+      </c>
+      <c r="V38">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="W38">
+        <v>17.478999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>8.5389999999999997</v>
+      </c>
+      <c r="E39">
+        <v>7.3659999999999997</v>
+      </c>
+      <c r="F39">
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="G39">
+        <v>6.3780000000000001</v>
+      </c>
+      <c r="H39">
+        <v>6.3739999999999997</v>
+      </c>
+      <c r="I39">
+        <v>5.633</v>
+      </c>
+      <c r="J39">
+        <v>4.26</v>
+      </c>
+      <c r="K39">
+        <v>2.7490000000000001</v>
+      </c>
+      <c r="L39">
+        <v>2.097</v>
+      </c>
+      <c r="M39">
+        <v>3.024</v>
+      </c>
+      <c r="N39">
+        <v>2.972</v>
+      </c>
+      <c r="O39">
+        <v>2.677</v>
+      </c>
+      <c r="P39">
+        <v>2.19</v>
+      </c>
+      <c r="Q39">
+        <v>1.8939999999999999</v>
+      </c>
+      <c r="R39">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="S39">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="T39">
+        <v>1.591</v>
+      </c>
+      <c r="U39">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="V39">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="W39">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="E40">
+        <v>7.37</v>
+      </c>
+      <c r="F40">
+        <v>6.84</v>
+      </c>
+      <c r="G40">
+        <v>6.38</v>
+      </c>
+      <c r="H40">
+        <v>6.37</v>
+      </c>
+      <c r="I40">
+        <v>5.63</v>
+      </c>
+      <c r="J40">
+        <v>4.26</v>
+      </c>
+      <c r="K40">
+        <v>2.75</v>
+      </c>
+      <c r="L40">
+        <v>2.1</v>
+      </c>
+      <c r="M40">
+        <v>3.02</v>
+      </c>
+      <c r="N40">
+        <v>2.97</v>
+      </c>
+      <c r="O40">
+        <v>2.68</v>
+      </c>
+      <c r="P40">
+        <v>2.19</v>
+      </c>
+      <c r="Q40">
+        <v>1.89</v>
+      </c>
+      <c r="R40">
+        <v>1.45</v>
+      </c>
+      <c r="S40">
+        <v>1.78</v>
+      </c>
+      <c r="T40">
+        <v>1.59</v>
+      </c>
+      <c r="U40">
+        <v>1.62</v>
+      </c>
+      <c r="V40">
+        <v>1.24</v>
+      </c>
+      <c r="W40">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>-44421</v>
+      </c>
+      <c r="E41">
+        <v>-46128</v>
+      </c>
+      <c r="F41">
+        <v>-46960</v>
+      </c>
+      <c r="G41">
+        <v>-49890</v>
+      </c>
+      <c r="H41">
+        <v>-40505</v>
+      </c>
+      <c r="I41">
+        <v>-51269</v>
+      </c>
+      <c r="J41">
+        <v>-68092</v>
+      </c>
+      <c r="K41">
+        <v>-69289</v>
+      </c>
+      <c r="L41">
+        <v>-70166</v>
+      </c>
+      <c r="M41">
+        <v>-70926</v>
+      </c>
+      <c r="N41">
+        <v>-86459</v>
+      </c>
+      <c r="O41">
+        <v>-88796</v>
+      </c>
+      <c r="P41">
+        <v>-91035</v>
+      </c>
+      <c r="Q41">
+        <v>-90637</v>
+      </c>
+      <c r="R41">
+        <v>-67173</v>
+      </c>
+      <c r="S41">
+        <v>-59404</v>
+      </c>
+      <c r="T41">
+        <v>-51633</v>
+      </c>
+      <c r="U41">
+        <v>-43868</v>
+      </c>
+      <c r="V41">
+        <v>-36088</v>
+      </c>
+      <c r="W41">
+        <v>-28328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42">
+        <v>23.946959085887386</v>
+      </c>
+      <c r="E42">
+        <v>23.2823598271446</v>
+      </c>
+      <c r="F42">
+        <v>21.660182467898139</v>
+      </c>
+      <c r="G42">
+        <v>23.177598754480609</v>
+      </c>
+      <c r="H42">
+        <v>26.359150224775224</v>
+      </c>
+      <c r="I42">
+        <v>30.825563051099543</v>
+      </c>
+      <c r="J42">
+        <v>32.748080618492203</v>
+      </c>
+      <c r="K42">
+        <v>38.105554931686321</v>
+      </c>
+      <c r="L42">
+        <v>39.227918692984964</v>
+      </c>
+      <c r="M42">
+        <v>23.141897384639829</v>
+      </c>
+      <c r="N42">
+        <v>23.851786593285883</v>
+      </c>
+      <c r="O42">
+        <v>24.048671425109632</v>
+      </c>
+      <c r="P42">
+        <v>24.198519244333628</v>
+      </c>
+      <c r="Q42">
+        <v>24.938200200022472</v>
+      </c>
+      <c r="R42">
+        <v>23.782570660056848</v>
+      </c>
+      <c r="S42">
+        <v>24.062090789552744</v>
+      </c>
+      <c r="T42">
+        <v>21.986885323541667</v>
+      </c>
+      <c r="U42">
+        <v>21.938954212504679</v>
+      </c>
+      <c r="V42">
+        <v>26.591810670347115</v>
+      </c>
+      <c r="W42">
+        <v>25.103661882340774</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43">
+        <v>3836197000</v>
+      </c>
+      <c r="E43">
+        <v>4435646000</v>
+      </c>
+      <c r="F43">
+        <v>4885640000</v>
+      </c>
+      <c r="G43">
+        <v>6401421000</v>
+      </c>
+      <c r="H43">
+        <v>8443362999.999999</v>
+      </c>
+      <c r="I43">
+        <v>11606441000</v>
+      </c>
+      <c r="J43">
+        <v>14656076000</v>
+      </c>
+      <c r="K43">
+        <v>20359798000</v>
+      </c>
+      <c r="L43">
+        <v>24682991000</v>
+      </c>
+      <c r="M43">
+        <v>13984603000</v>
+      </c>
+      <c r="N43">
+        <v>20578218900</v>
+      </c>
+      <c r="O43">
+        <v>23753549400</v>
+      </c>
+      <c r="P43">
+        <v>25524642600</v>
+      </c>
+      <c r="Q43">
+        <v>29809346600</v>
+      </c>
+      <c r="R43">
+        <v>31384493000</v>
+      </c>
+      <c r="S43">
+        <v>35308761400</v>
+      </c>
+      <c r="T43">
+        <v>34961438500</v>
+      </c>
+      <c r="U43">
+        <v>38614159400</v>
+      </c>
+      <c r="V43">
+        <v>50275175900</v>
+      </c>
+      <c r="W43">
+        <v>51777868900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44">
+        <v>66.417000000000002</v>
+      </c>
+      <c r="E44">
+        <v>66.787000000000006</v>
+      </c>
+      <c r="F44">
+        <v>66.938000000000002</v>
+      </c>
+      <c r="G44">
+        <v>67.418999999999997</v>
+      </c>
+      <c r="H44">
+        <v>67.861000000000004</v>
+      </c>
+      <c r="I44">
+        <v>68.168999999999997</v>
+      </c>
+      <c r="J44">
+        <v>68.478999999999999</v>
+      </c>
+      <c r="K44">
+        <v>68.947000000000003</v>
+      </c>
+      <c r="L44">
+        <v>69.394000000000005</v>
+      </c>
+      <c r="M44">
+        <v>69.572999999999993</v>
+      </c>
+      <c r="N44">
+        <v>69.356999999999999</v>
+      </c>
+      <c r="O44">
+        <v>69.191999999999993</v>
+      </c>
+      <c r="P44">
+        <v>69.143000000000001</v>
+      </c>
+      <c r="Q44">
+        <v>69.099000000000004</v>
+      </c>
+      <c r="R44">
+        <v>69.031000000000006</v>
+      </c>
+      <c r="S44">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="T44">
+        <v>69.917000000000002</v>
+      </c>
+      <c r="U44">
+        <v>70.516000000000005</v>
+      </c>
+      <c r="V44">
+        <v>70.492000000000004</v>
+      </c>
+      <c r="W44">
+        <v>70.935000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="E45">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="F45">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="G45">
+        <v>1.48</v>
+      </c>
+      <c r="H45">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="I45">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="J45">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="K45">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="L45">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="M45">
+        <v>1.704</v>
+      </c>
+      <c r="N45">
+        <v>1.698</v>
+      </c>
+      <c r="O45">
+        <v>1.66</v>
+      </c>
+      <c r="P45">
+        <v>1.659</v>
+      </c>
+      <c r="Q45">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="R45">
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="S45">
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="T45">
+        <v>1.89</v>
+      </c>
+      <c r="U45">
+        <v>1.81</v>
+      </c>
+      <c r="V45">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="W45">
+        <v>1.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:W45" xr:uid="{6B79EAC1-1D22-4D0A-BBAD-84992765E482}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>

--- a/Thesis_project/01_data-input/World Bank/WDI.xlsx
+++ b/Thesis_project/01_data-input/World Bank/WDI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\World Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37510CA7-F484-4866-AA45-B669E08BE49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21095E9A-C969-4A5A-8601-2B926E8E0C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_clean!$A$1:$W$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data_clean_AL!$A$1:$W$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Data_clean_extra!$A$1:$W$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data_clean_AL!$A$1:$W$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Data_clean_extra!$A$1:$W$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="182">
   <si>
     <t>MNE</t>
   </si>
@@ -633,36 +633,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -677,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -686,10 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17942,10 +17915,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97195DA-8BD9-4B76-86A6-3897A1E86E23}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18096,1155 +18069,729 @@
         <v>25.824000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3">
-        <v>4.2069999999999999</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3">
-        <v>15.613</v>
-      </c>
-      <c r="L3">
-        <v>12.679</v>
-      </c>
-      <c r="M3">
-        <v>16.202999999999999</v>
-      </c>
-      <c r="N3">
-        <v>14.145</v>
-      </c>
-      <c r="O3">
-        <v>15.603</v>
-      </c>
-      <c r="P3">
-        <v>15.769</v>
-      </c>
-      <c r="Q3">
-        <v>14.9</v>
-      </c>
-      <c r="R3">
-        <v>17.843</v>
-      </c>
-      <c r="S3">
-        <v>19.276</v>
-      </c>
-      <c r="T3">
-        <v>17.053999999999998</v>
-      </c>
-      <c r="U3">
-        <v>13.694000000000001</v>
-      </c>
-      <c r="V3">
-        <v>14.013999999999999</v>
-      </c>
-      <c r="W3">
-        <v>12.295999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9.5209978520870195E-2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4.9330335110425901E-2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="4">
+        <v>10.544280052185099</v>
+      </c>
+      <c r="P3" s="4">
+        <v>12.330730438232401</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>11.3742208480835</v>
+      </c>
+      <c r="R3" s="4">
+        <v>11.089459419250501</v>
+      </c>
+      <c r="S3" s="4">
+        <v>12.9915361404419</v>
+      </c>
+      <c r="T3" s="4">
+        <v>12.4316911697388</v>
+      </c>
+      <c r="U3" s="4">
+        <v>13.3784856796265</v>
+      </c>
+      <c r="V3" s="4">
+        <v>13.655957221984901</v>
+      </c>
+      <c r="W3" s="4">
+        <v>14.6913003921509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4">
-        <v>3.9369999999999998</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4">
-        <v>9.3109999999999999</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4">
-        <v>14.214</v>
-      </c>
-      <c r="L4">
-        <v>11.372</v>
-      </c>
-      <c r="M4">
-        <v>11.551</v>
-      </c>
-      <c r="N4">
-        <v>12.739000000000001</v>
-      </c>
-      <c r="O4">
-        <v>12.307</v>
-      </c>
-      <c r="P4">
-        <v>11.781000000000001</v>
-      </c>
-      <c r="Q4">
-        <v>14.055</v>
-      </c>
-      <c r="R4">
-        <v>15.071999999999999</v>
-      </c>
-      <c r="S4">
-        <v>13.5</v>
-      </c>
-      <c r="T4">
-        <v>12.916</v>
-      </c>
-      <c r="U4">
-        <v>12.24</v>
-      </c>
-      <c r="V4">
-        <v>9.907</v>
-      </c>
-      <c r="W4">
-        <v>8.6869999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="4">
+        <v>37.044891357421903</v>
+      </c>
+      <c r="F4" s="4">
+        <v>40.495040893554702</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="4">
+        <v>42.761489868164098</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="4">
+        <v>39.889320373535199</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="4">
+        <v>43.490341186523402</v>
+      </c>
+      <c r="P4" s="4">
+        <v>45.279148101806598</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>43.755760192871101</v>
+      </c>
+      <c r="R4" s="4">
+        <v>45.982704162597699</v>
+      </c>
+      <c r="S4" s="4">
+        <v>48.186363220214801</v>
+      </c>
+      <c r="T4" s="4">
+        <v>46.984519958496101</v>
+      </c>
+      <c r="U4" s="4">
+        <v>46.353340148925803</v>
+      </c>
+      <c r="V4" s="4">
+        <v>49.885807037353501</v>
+      </c>
+      <c r="W4" s="4">
+        <v>50.712894439697301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5">
-        <v>7.4820000000000002</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5">
-        <v>7.8810000000000002</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5">
-        <v>18.233000000000001</v>
-      </c>
-      <c r="L5">
-        <v>15.606</v>
-      </c>
-      <c r="M5">
-        <v>15.602</v>
-      </c>
-      <c r="N5">
-        <v>15.76</v>
-      </c>
-      <c r="O5">
-        <v>14.602</v>
-      </c>
-      <c r="P5">
-        <v>14.834</v>
-      </c>
-      <c r="Q5">
-        <v>18.797000000000001</v>
-      </c>
-      <c r="R5">
-        <v>21.78</v>
-      </c>
-      <c r="S5">
-        <v>20.501999999999999</v>
-      </c>
-      <c r="T5">
-        <v>17.652000000000001</v>
-      </c>
-      <c r="U5">
-        <v>15.294</v>
-      </c>
-      <c r="V5">
-        <v>14.231999999999999</v>
-      </c>
-      <c r="W5">
-        <v>14.259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7.4278798103332502</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8.3909387588500994</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="4">
+        <v>9.1508398056030291</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="4">
+        <v>9.8161802291870099</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="4">
+        <v>12.0026302337646</v>
+      </c>
+      <c r="P5" s="4">
+        <v>12.899660110473601</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>12.9113216400146</v>
+      </c>
+      <c r="R5" s="4">
+        <v>13.1912441253662</v>
+      </c>
+      <c r="S5" s="4">
+        <v>14.808007240295399</v>
+      </c>
+      <c r="T5" s="4">
+        <v>14.3157796859741</v>
+      </c>
+      <c r="U5" s="4">
+        <v>15.456096649169901</v>
+      </c>
+      <c r="V5" s="4">
+        <v>16.839599609375</v>
+      </c>
+      <c r="W5" s="4">
+        <v>17.689254760742202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6">
-        <v>63.148000000000003</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6">
-        <v>65.489000000000004</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6">
-        <v>60.281999999999996</v>
-      </c>
-      <c r="L6">
-        <v>61.686999999999998</v>
-      </c>
-      <c r="M6">
-        <v>60.747999999999998</v>
-      </c>
-      <c r="N6">
-        <v>59.472999999999999</v>
-      </c>
-      <c r="O6">
-        <v>66.55</v>
-      </c>
-      <c r="P6">
-        <v>63.161999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>58.936999999999998</v>
-      </c>
-      <c r="R6">
-        <v>59.085000000000001</v>
-      </c>
-      <c r="S6">
-        <v>59.966999999999999</v>
-      </c>
-      <c r="T6">
-        <v>62.277999999999999</v>
-      </c>
-      <c r="U6">
-        <v>63.031999999999996</v>
-      </c>
-      <c r="V6">
-        <v>62.902000000000001</v>
-      </c>
-      <c r="W6">
-        <v>62.601999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="4">
+        <v>91.397651672363295</v>
+      </c>
+      <c r="F6" s="4">
+        <v>80.870590209960895</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="4">
+        <v>44.1053657531738</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="4">
+        <v>92.395713806152301</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="4">
+        <v>95.847473144531193</v>
+      </c>
+      <c r="P6" s="4">
+        <v>95.508392333984403</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>95.935379028320298</v>
+      </c>
+      <c r="R6" s="4">
+        <v>96.520103454589801</v>
+      </c>
+      <c r="S6" s="4">
+        <v>97.061241149902301</v>
+      </c>
+      <c r="T6" s="4">
+        <v>97.219581604003906</v>
+      </c>
+      <c r="U6" s="4">
+        <v>96.512756347656193</v>
+      </c>
+      <c r="V6" s="4">
+        <v>97.097961425781193</v>
+      </c>
+      <c r="W6" s="4">
+        <v>97.444503784179702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7">
-        <v>60.850999999999999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7">
-        <v>15.909000000000001</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7">
-        <v>42.328000000000003</v>
-      </c>
-      <c r="L7">
-        <v>48.634999999999998</v>
-      </c>
-      <c r="M7">
-        <v>50.465000000000003</v>
-      </c>
-      <c r="N7">
-        <v>51.616999999999997</v>
-      </c>
-      <c r="O7">
-        <v>55.36</v>
-      </c>
-      <c r="P7">
-        <v>52.625999999999998</v>
-      </c>
-      <c r="Q7">
-        <v>46.482999999999997</v>
-      </c>
-      <c r="R7">
-        <v>47.066000000000003</v>
-      </c>
-      <c r="S7">
-        <v>49.372</v>
-      </c>
-      <c r="T7">
-        <v>51.267000000000003</v>
-      </c>
-      <c r="U7">
-        <v>52.048999999999999</v>
-      </c>
-      <c r="V7">
-        <v>54.204999999999998</v>
-      </c>
-      <c r="W7">
-        <v>55.177999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4">
+        <v>11.5850734710693</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="4">
+        <v>10.970767021179199</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>12.9113216400146</v>
+      </c>
+      <c r="R7" s="4">
+        <v>13.1912441253662</v>
+      </c>
+      <c r="S7" s="4">
+        <v>14.808007240295399</v>
+      </c>
+      <c r="T7" s="4">
+        <v>14.3157796859741</v>
+      </c>
+      <c r="U7" s="4">
+        <v>15.456096649169901</v>
+      </c>
+      <c r="V7" s="4">
+        <v>16.839599609375</v>
+      </c>
+      <c r="W7" s="4">
+        <v>17.689254760742202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8">
-        <v>70.603999999999999</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8">
-        <v>65.015000000000001</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8">
-        <v>79.188000000000002</v>
-      </c>
-      <c r="L8">
-        <v>78.903999999999996</v>
-      </c>
-      <c r="M8">
-        <v>81.301000000000002</v>
-      </c>
-      <c r="N8">
-        <v>77.97</v>
-      </c>
-      <c r="O8">
-        <v>74.516999999999996</v>
-      </c>
-      <c r="P8">
-        <v>73.069999999999993</v>
-      </c>
-      <c r="Q8">
-        <v>73.427999999999997</v>
-      </c>
-      <c r="R8">
-        <v>74.381</v>
-      </c>
-      <c r="S8">
-        <v>73.271000000000001</v>
-      </c>
-      <c r="T8">
-        <v>74.125</v>
-      </c>
-      <c r="U8">
-        <v>73.224999999999994</v>
-      </c>
-      <c r="V8">
-        <v>72.099000000000004</v>
-      </c>
-      <c r="W8">
-        <v>75.465000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="4">
+        <v>75.734046936035199</v>
+      </c>
+      <c r="F8" s="4">
+        <v>41.9750785827637</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="4">
+        <v>44.1053657531738</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4">
+        <v>81.733947753906193</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="4">
+        <v>85.226219177246094</v>
+      </c>
+      <c r="P8" s="4">
+        <v>87.214897155761705</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>86.902008056640597</v>
+      </c>
+      <c r="R8" s="4">
+        <v>87.463569641113295</v>
+      </c>
+      <c r="S8" s="4">
+        <v>88.646217346191406</v>
+      </c>
+      <c r="T8" s="4">
+        <v>89.3892822265625</v>
+      </c>
+      <c r="U8" s="4">
+        <v>83.559516906738295</v>
+      </c>
+      <c r="V8" s="4">
+        <v>90.268852233886705</v>
+      </c>
+      <c r="W8" s="4">
+        <v>90.710365295410199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9">
-        <v>9.5209978520870195E-2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9">
-        <v>4.9330335110425901E-2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9">
-        <v>10.544280052185099</v>
-      </c>
-      <c r="P9">
-        <v>12.330730438232401</v>
-      </c>
-      <c r="Q9">
-        <v>11.3742208480835</v>
-      </c>
-      <c r="R9">
-        <v>11.089459419250501</v>
-      </c>
-      <c r="S9">
-        <v>12.9915361404419</v>
-      </c>
-      <c r="T9">
-        <v>12.4316911697388</v>
-      </c>
-      <c r="U9">
-        <v>13.3784856796265</v>
-      </c>
-      <c r="V9">
-        <v>13.655957221984901</v>
-      </c>
-      <c r="W9">
-        <v>14.6913003921509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.4278798103332502</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.65356218814849898</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.66159951686859098</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="4">
+        <v>9.8161802291870099</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="4">
+        <v>12.0026302337646</v>
+      </c>
+      <c r="P9" s="4">
+        <v>12.899660110473601</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>12.9113216400146</v>
+      </c>
+      <c r="R9" s="4">
+        <v>13.1912441253662</v>
+      </c>
+      <c r="S9" s="4">
+        <v>14.808007240295399</v>
+      </c>
+      <c r="T9" s="4">
+        <v>14.3157796859741</v>
+      </c>
+      <c r="U9" s="4">
+        <v>16.150199890136701</v>
+      </c>
+      <c r="V9" s="4">
+        <v>16.467649459838899</v>
+      </c>
+      <c r="W9" s="4">
+        <v>17.321987152099599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10">
-        <v>37.044891357421903</v>
-      </c>
-      <c r="F10">
-        <v>40.495040893554702</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10">
-        <v>42.761489868164098</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10">
-        <v>39.889320373535199</v>
-      </c>
-      <c r="M10" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10">
-        <v>43.490341186523402</v>
-      </c>
-      <c r="P10">
-        <v>45.279148101806598</v>
-      </c>
-      <c r="Q10">
-        <v>43.755760192871101</v>
-      </c>
-      <c r="R10">
-        <v>45.982704162597699</v>
-      </c>
-      <c r="S10">
-        <v>48.186363220214801</v>
-      </c>
-      <c r="T10">
-        <v>46.984519958496101</v>
-      </c>
-      <c r="U10">
-        <v>46.353340148925803</v>
-      </c>
-      <c r="V10">
-        <v>49.885807037353501</v>
-      </c>
-      <c r="W10">
-        <v>50.712894439697301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>8.9620001614093794E-2</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>4.1983604431152302E-2</v>
+      </c>
+      <c r="R10" s="4">
+        <v>5.8557629585266099E-2</v>
+      </c>
+      <c r="S10" s="4">
+        <v>7.7725723385810894E-2</v>
+      </c>
+      <c r="T10" s="4">
+        <v>6.6123813390731798E-2</v>
+      </c>
+      <c r="U10" s="4">
+        <v>9.6415467560291304E-2</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.22039392590522799</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0.23008824884891499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11">
-        <v>7.4278798103332502</v>
-      </c>
-      <c r="F11">
-        <v>8.3909387588500994</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11">
-        <v>9.1508398056030291</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11">
-        <v>9.8161802291870099</v>
-      </c>
-      <c r="M11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11">
-        <v>12.0026302337646</v>
-      </c>
-      <c r="P11">
-        <v>12.899660110473601</v>
-      </c>
-      <c r="Q11">
-        <v>12.9113216400146</v>
-      </c>
-      <c r="R11">
-        <v>13.1912441253662</v>
-      </c>
-      <c r="S11">
-        <v>14.808007240295399</v>
-      </c>
-      <c r="T11">
-        <v>14.3157796859741</v>
-      </c>
-      <c r="U11">
-        <v>15.456096649169901</v>
-      </c>
-      <c r="V11">
-        <v>16.839599609375</v>
-      </c>
-      <c r="W11">
-        <v>17.689254760742202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="4">
+        <v>75.403999999999996</v>
+      </c>
+      <c r="E11" s="4">
+        <v>75.638999999999996</v>
+      </c>
+      <c r="F11" s="4">
+        <v>75.89</v>
+      </c>
+      <c r="G11" s="4">
+        <v>76.141999999999996</v>
+      </c>
+      <c r="H11" s="4">
+        <v>76.376000000000005</v>
+      </c>
+      <c r="I11" s="4">
+        <v>76.620999999999995</v>
+      </c>
+      <c r="J11" s="4">
+        <v>76.816000000000003</v>
+      </c>
+      <c r="K11" s="4">
+        <v>77.549000000000007</v>
+      </c>
+      <c r="L11" s="4">
+        <v>77.653000000000006</v>
+      </c>
+      <c r="M11" s="4">
+        <v>77.781000000000006</v>
+      </c>
+      <c r="N11" s="4">
+        <v>77.936000000000007</v>
+      </c>
+      <c r="O11" s="4">
+        <v>78.091999999999999</v>
+      </c>
+      <c r="P11" s="4">
+        <v>78.063999999999993</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>78.123000000000005</v>
+      </c>
+      <c r="R11" s="4">
+        <v>78.406999999999996</v>
+      </c>
+      <c r="S11" s="4">
+        <v>78.644000000000005</v>
+      </c>
+      <c r="T11" s="4">
+        <v>78.86</v>
+      </c>
+      <c r="U11" s="4">
+        <v>79.046999999999997</v>
+      </c>
+      <c r="V11" s="4">
+        <v>79.183999999999997</v>
+      </c>
+      <c r="W11" s="4">
+        <v>79.281999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12">
-        <v>91.397651672363295</v>
-      </c>
-      <c r="F12">
-        <v>80.870590209960895</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12">
-        <v>44.1053657531738</v>
-      </c>
-      <c r="J12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12">
-        <v>92.395713806152301</v>
-      </c>
-      <c r="M12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12">
-        <v>95.847473144531193</v>
-      </c>
-      <c r="P12">
-        <v>95.508392333984403</v>
-      </c>
-      <c r="Q12">
-        <v>95.935379028320298</v>
-      </c>
-      <c r="R12">
-        <v>96.520103454589801</v>
-      </c>
-      <c r="S12">
-        <v>97.061241149902301</v>
-      </c>
-      <c r="T12">
-        <v>97.219581604003906</v>
-      </c>
-      <c r="U12">
-        <v>96.512756347656193</v>
-      </c>
-      <c r="V12">
-        <v>97.097961425781193</v>
-      </c>
-      <c r="W12">
-        <v>97.444503784179702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="7">
-        <v>11.5850734710693</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10.970767021179199</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>12.9113216400146</v>
-      </c>
-      <c r="R13" s="7">
-        <v>13.1912441253662</v>
-      </c>
-      <c r="S13" s="7">
-        <v>14.808007240295399</v>
-      </c>
-      <c r="T13" s="7">
-        <v>14.3157796859741</v>
-      </c>
-      <c r="U13" s="7">
-        <v>15.456096649169901</v>
-      </c>
-      <c r="V13" s="7">
-        <v>16.839599609375</v>
-      </c>
-      <c r="W13" s="7">
-        <v>17.689254760742202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14">
-        <v>75.734046936035199</v>
-      </c>
-      <c r="F14">
-        <v>41.9750785827637</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14">
-        <v>44.1053657531738</v>
-      </c>
-      <c r="J14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14">
-        <v>81.733947753906193</v>
-      </c>
-      <c r="M14" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" t="s">
-        <v>68</v>
-      </c>
-      <c r="O14">
-        <v>85.226219177246094</v>
-      </c>
-      <c r="P14">
-        <v>87.214897155761705</v>
-      </c>
-      <c r="Q14">
-        <v>86.902008056640597</v>
-      </c>
-      <c r="R14">
-        <v>87.463569641113295</v>
-      </c>
-      <c r="S14">
-        <v>88.646217346191406</v>
-      </c>
-      <c r="T14">
-        <v>89.3892822265625</v>
-      </c>
-      <c r="U14">
-        <v>83.559516906738295</v>
-      </c>
-      <c r="V14">
-        <v>90.268852233886705</v>
-      </c>
-      <c r="W14">
-        <v>90.710365295410199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15">
-        <v>7.4278798103332502</v>
-      </c>
-      <c r="F15">
-        <v>0.65356218814849898</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15">
-        <v>0.66159951686859098</v>
-      </c>
-      <c r="J15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15">
-        <v>9.8161802291870099</v>
-      </c>
-      <c r="M15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15">
-        <v>12.0026302337646</v>
-      </c>
-      <c r="P15">
-        <v>12.899660110473601</v>
-      </c>
-      <c r="Q15">
-        <v>12.9113216400146</v>
-      </c>
-      <c r="R15">
-        <v>13.1912441253662</v>
-      </c>
-      <c r="S15">
-        <v>14.808007240295399</v>
-      </c>
-      <c r="T15">
-        <v>14.3157796859741</v>
-      </c>
-      <c r="U15">
-        <v>16.150199890136701</v>
-      </c>
-      <c r="V15">
-        <v>16.467649459838899</v>
-      </c>
-      <c r="W15">
-        <v>17.321987152099599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" t="s">
-        <v>68</v>
-      </c>
-      <c r="N16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>8.9620001614093794E-2</v>
-      </c>
-      <c r="Q16">
-        <v>4.1983604431152302E-2</v>
-      </c>
-      <c r="R16">
-        <v>5.8557629585266099E-2</v>
-      </c>
-      <c r="S16">
-        <v>7.7725723385810894E-2</v>
-      </c>
-      <c r="T16">
-        <v>6.6123813390731798E-2</v>
-      </c>
-      <c r="U16">
-        <v>9.6415467560291304E-2</v>
-      </c>
-      <c r="V16">
-        <v>0.22039392590522799</v>
-      </c>
-      <c r="W16">
-        <v>0.23008824884891499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17">
-        <v>75.403999999999996</v>
-      </c>
-      <c r="E17">
-        <v>75.638999999999996</v>
-      </c>
-      <c r="F17">
-        <v>75.89</v>
-      </c>
-      <c r="G17">
-        <v>76.141999999999996</v>
-      </c>
-      <c r="H17">
-        <v>76.376000000000005</v>
-      </c>
-      <c r="I17">
-        <v>76.620999999999995</v>
-      </c>
-      <c r="J17">
-        <v>76.816000000000003</v>
-      </c>
-      <c r="K17">
-        <v>77.549000000000007</v>
-      </c>
-      <c r="L17">
-        <v>77.653000000000006</v>
-      </c>
-      <c r="M17">
-        <v>77.781000000000006</v>
-      </c>
-      <c r="N17">
-        <v>77.936000000000007</v>
-      </c>
-      <c r="O17">
-        <v>78.091999999999999</v>
-      </c>
-      <c r="P17">
-        <v>78.063999999999993</v>
-      </c>
-      <c r="Q17">
-        <v>78.123000000000005</v>
-      </c>
-      <c r="R17">
-        <v>78.406999999999996</v>
-      </c>
-      <c r="S17">
-        <v>78.644000000000005</v>
-      </c>
-      <c r="T17">
-        <v>78.86</v>
-      </c>
-      <c r="U17">
-        <v>79.046999999999997</v>
-      </c>
-      <c r="V17">
-        <v>79.183999999999997</v>
-      </c>
-      <c r="W17">
-        <v>79.281999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
         <v>88</v>
       </c>
-      <c r="D18">
+      <c r="D12" s="4">
         <v>2.2309999999999999</v>
       </c>
-      <c r="E18">
+      <c r="E12" s="4">
         <v>2.15</v>
       </c>
-      <c r="F18">
+      <c r="F12" s="4">
         <v>2.036</v>
       </c>
-      <c r="G18">
+      <c r="G12" s="4">
         <v>1.978</v>
       </c>
-      <c r="H18">
+      <c r="H12" s="4">
         <v>1.89</v>
       </c>
-      <c r="I18">
+      <c r="I12" s="4">
         <v>1.8029999999999999</v>
       </c>
-      <c r="J18">
+      <c r="J12" s="4">
         <v>1.724</v>
       </c>
-      <c r="K18">
+      <c r="K12" s="4">
         <v>1.671</v>
       </c>
-      <c r="L18">
+      <c r="L12" s="4">
         <v>1.6479999999999999</v>
       </c>
-      <c r="M18">
+      <c r="M12" s="4">
         <v>1.647</v>
       </c>
-      <c r="N18">
+      <c r="N12" s="4">
         <v>1.6559999999999999</v>
       </c>
-      <c r="O18">
+      <c r="O12" s="4">
         <v>1.671</v>
       </c>
-      <c r="P18">
+      <c r="P12" s="4">
         <v>1.6919999999999999</v>
       </c>
-      <c r="Q18">
+      <c r="Q12" s="4">
         <v>1.6970000000000001</v>
       </c>
-      <c r="R18">
+      <c r="R12" s="4">
         <v>1.6739999999999999</v>
       </c>
-      <c r="S18">
+      <c r="S12" s="4">
         <v>1.613</v>
       </c>
-      <c r="T18">
+      <c r="T12" s="4">
         <v>1.5509999999999999</v>
       </c>
-      <c r="U18">
+      <c r="U12" s="4">
         <v>1.4910000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V12" s="4">
         <v>1.44</v>
       </c>
-      <c r="W18">
+      <c r="W12" s="4">
         <v>1.4139999999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W18" xr:uid="{F97195DA-8BD9-4B76-86A6-3897A1E86E23}"/>
+  <autoFilter ref="A1:W12" xr:uid="{F97195DA-8BD9-4B76-86A6-3897A1E86E23}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AB792B-C123-4758-888E-507042443064}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD57"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19473,13 +19020,13 @@
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
-        <v>68</v>
+      <c r="E4">
+        <v>16.100000000000001</v>
       </c>
       <c r="F4" t="s">
         <v>68</v>
@@ -19493,47 +19040,47 @@
       <c r="I4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
-        <v>68</v>
+      <c r="J4">
+        <v>31.11</v>
       </c>
       <c r="K4">
-        <v>9.6809999999999992</v>
+        <v>28.984000000000002</v>
       </c>
       <c r="L4">
-        <v>9.7899999999999991</v>
+        <v>23.405000000000001</v>
       </c>
       <c r="M4">
-        <v>9.8620000000000001</v>
+        <v>24.068000000000001</v>
       </c>
       <c r="N4">
-        <v>15.456</v>
+        <v>27.312000000000001</v>
       </c>
       <c r="O4">
-        <v>14.643000000000001</v>
+        <v>27.582000000000001</v>
       </c>
       <c r="P4">
-        <v>19.096</v>
+        <v>28.01</v>
       </c>
       <c r="Q4">
-        <v>16.920999999999999</v>
+        <v>27.49</v>
       </c>
       <c r="R4">
-        <v>21.06</v>
+        <v>27.516999999999999</v>
       </c>
       <c r="S4">
-        <v>20.454999999999998</v>
+        <v>27.695</v>
       </c>
       <c r="T4">
-        <v>21.364000000000001</v>
+        <v>25.408000000000001</v>
       </c>
       <c r="U4">
-        <v>16.706</v>
+        <v>20.527000000000001</v>
       </c>
       <c r="V4">
-        <v>15.369</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="W4">
-        <v>13.266999999999999</v>
+        <v>15.692</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -19544,67 +19091,67 @@
         <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>8141</v>
       </c>
       <c r="E5">
-        <v>17.030999999999999</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>68</v>
+        <v>9058</v>
+      </c>
+      <c r="F5">
+        <v>-13313</v>
+      </c>
+      <c r="G5">
+        <v>-27396</v>
+      </c>
+      <c r="H5">
+        <v>-68032</v>
+      </c>
+      <c r="I5">
+        <v>-37107</v>
       </c>
       <c r="J5">
-        <v>37.101999999999997</v>
+        <v>-38642</v>
       </c>
       <c r="K5">
-        <v>37.802</v>
+        <v>-65367</v>
       </c>
       <c r="L5">
-        <v>28.39</v>
+        <v>-68177</v>
       </c>
       <c r="M5">
-        <v>31.119</v>
+        <v>-68227</v>
       </c>
       <c r="N5">
-        <v>31.001000000000001</v>
+        <v>-67267</v>
       </c>
       <c r="O5">
-        <v>30.925000000000001</v>
+        <v>-64918</v>
       </c>
       <c r="P5">
-        <v>27.751999999999999</v>
+        <v>-66436</v>
       </c>
       <c r="Q5">
-        <v>29.445</v>
+        <v>-37030</v>
       </c>
       <c r="R5">
-        <v>30.5</v>
+        <v>-35709</v>
       </c>
       <c r="S5">
-        <v>28.928000000000001</v>
+        <v>-33976</v>
       </c>
       <c r="T5">
-        <v>26.292000000000002</v>
+        <v>-32195</v>
       </c>
       <c r="U5">
-        <v>19.716000000000001</v>
+        <v>-30669</v>
       </c>
       <c r="V5">
-        <v>20.132999999999999</v>
+        <v>-29154</v>
       </c>
       <c r="W5">
-        <v>15.005000000000001</v>
+        <v>-27848</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -19615,13 +19162,13 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
       </c>
       <c r="E6">
-        <v>6.6449999999999996</v>
+        <v>69.225999999999999</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -19636,46 +19183,46 @@
         <v>68</v>
       </c>
       <c r="J6">
-        <v>25.957999999999998</v>
+        <v>61.741</v>
       </c>
       <c r="K6">
-        <v>30.035</v>
+        <v>61.484000000000002</v>
       </c>
       <c r="L6">
-        <v>24.521999999999998</v>
+        <v>60.575000000000003</v>
       </c>
       <c r="M6">
-        <v>25.047999999999998</v>
+        <v>59.14</v>
       </c>
       <c r="N6">
-        <v>28.640999999999998</v>
+        <v>59.298000000000002</v>
       </c>
       <c r="O6">
-        <v>29.117999999999999</v>
+        <v>58.417999999999999</v>
       </c>
       <c r="P6">
-        <v>29.744</v>
+        <v>58.573</v>
       </c>
       <c r="Q6">
-        <v>29.244</v>
+        <v>56.774000000000001</v>
       </c>
       <c r="R6">
-        <v>28.065999999999999</v>
+        <v>57.686999999999998</v>
       </c>
       <c r="S6">
-        <v>29.199000000000002</v>
+        <v>57.265000000000001</v>
       </c>
       <c r="T6">
-        <v>26.178999999999998</v>
+        <v>55.195999999999998</v>
       </c>
       <c r="U6">
-        <v>21.693000000000001</v>
+        <v>54.58</v>
       </c>
       <c r="V6">
-        <v>18.902000000000001</v>
+        <v>54.182000000000002</v>
       </c>
       <c r="W6">
-        <v>16.376999999999999</v>
+        <v>53.338000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -19686,13 +19233,13 @@
         <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
       </c>
       <c r="E7">
-        <v>16.100000000000001</v>
+        <v>57.305999999999997</v>
       </c>
       <c r="F7" t="s">
         <v>68</v>
@@ -19707,46 +19254,46 @@
         <v>68</v>
       </c>
       <c r="J7">
-        <v>31.11</v>
+        <v>63.021999999999998</v>
       </c>
       <c r="K7">
-        <v>28.984000000000002</v>
+        <v>28.291</v>
       </c>
       <c r="L7">
-        <v>23.405000000000001</v>
+        <v>30.558</v>
       </c>
       <c r="M7">
-        <v>24.068000000000001</v>
+        <v>29.85</v>
       </c>
       <c r="N7">
-        <v>27.312000000000001</v>
+        <v>29.282</v>
       </c>
       <c r="O7">
-        <v>27.582000000000001</v>
+        <v>27.497</v>
       </c>
       <c r="P7">
-        <v>28.01</v>
+        <v>27.824999999999999</v>
       </c>
       <c r="Q7">
-        <v>27.49</v>
+        <v>27.219000000000001</v>
       </c>
       <c r="R7">
-        <v>27.516999999999999</v>
+        <v>25.338999999999999</v>
       </c>
       <c r="S7">
-        <v>27.695</v>
+        <v>25.375</v>
       </c>
       <c r="T7">
-        <v>25.408000000000001</v>
+        <v>24.344000000000001</v>
       </c>
       <c r="U7">
-        <v>20.527000000000001</v>
+        <v>23.872</v>
       </c>
       <c r="V7">
-        <v>18.399999999999999</v>
+        <v>21.145</v>
       </c>
       <c r="W7">
-        <v>15.692</v>
+        <v>22.010999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -19757,67 +19304,67 @@
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8">
-        <v>25.483000000000001</v>
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
       </c>
       <c r="E8">
-        <v>26.489000000000001</v>
-      </c>
-      <c r="F8">
-        <v>27.431999999999999</v>
-      </c>
-      <c r="G8">
-        <v>28.416</v>
-      </c>
-      <c r="H8">
-        <v>29.292999999999999</v>
-      </c>
-      <c r="I8">
-        <v>30.213000000000001</v>
+        <v>68.05</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
       </c>
       <c r="J8">
-        <v>31.11</v>
+        <v>72.945999999999998</v>
       </c>
       <c r="K8">
-        <v>28.98</v>
+        <v>79.668000000000006</v>
       </c>
       <c r="L8">
-        <v>23.41</v>
+        <v>80.465000000000003</v>
       </c>
       <c r="M8">
-        <v>24.07</v>
+        <v>81.256</v>
       </c>
       <c r="N8">
-        <v>27.31</v>
+        <v>79.745000000000005</v>
       </c>
       <c r="O8">
-        <v>27.58</v>
+        <v>83.706999999999994</v>
       </c>
       <c r="P8">
-        <v>28.01</v>
+        <v>79.757999999999996</v>
       </c>
       <c r="Q8">
-        <v>27.49</v>
+        <v>81.242000000000004</v>
       </c>
       <c r="R8">
-        <v>27.52</v>
+        <v>81.385000000000005</v>
       </c>
       <c r="S8">
-        <v>27.69</v>
+        <v>78.957999999999998</v>
       </c>
       <c r="T8">
-        <v>25.41</v>
+        <v>78.921999999999997</v>
       </c>
       <c r="U8">
-        <v>20.53</v>
+        <v>77.475999999999999</v>
       </c>
       <c r="V8">
-        <v>18.399999999999999</v>
+        <v>76.563999999999993</v>
       </c>
       <c r="W8">
-        <v>15.69</v>
+        <v>74.596999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -19828,67 +19375,67 @@
         <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D9">
-        <v>8141</v>
+        <v>29.727248601710542</v>
       </c>
       <c r="E9">
-        <v>9058</v>
+        <v>30.979632775485349</v>
       </c>
       <c r="F9">
-        <v>-13313</v>
+        <v>30.822118295282745</v>
       </c>
       <c r="G9">
-        <v>-27396</v>
+        <v>29.689360528506032</v>
       </c>
       <c r="H9">
-        <v>-68032</v>
+        <v>29.895710112686487</v>
       </c>
       <c r="I9">
-        <v>-37107</v>
+        <v>28.73978220032684</v>
       </c>
       <c r="J9">
-        <v>-38642</v>
+        <v>25.276816599680629</v>
       </c>
       <c r="K9">
-        <v>-65367</v>
+        <v>29.841281246991674</v>
       </c>
       <c r="L9">
-        <v>-68177</v>
+        <v>31.695016000733812</v>
       </c>
       <c r="M9">
-        <v>-68227</v>
+        <v>23.648498803178597</v>
       </c>
       <c r="N9">
-        <v>-67267</v>
+        <v>19.708762239122024</v>
       </c>
       <c r="O9">
-        <v>-64918</v>
+        <v>22.199889582132954</v>
       </c>
       <c r="P9">
-        <v>-66436</v>
+        <v>22.436411587028278</v>
       </c>
       <c r="Q9">
-        <v>-37030</v>
+        <v>21.233580546727453</v>
       </c>
       <c r="R9">
-        <v>-35709</v>
+        <v>22.525864222317473</v>
       </c>
       <c r="S9">
-        <v>-33976</v>
+        <v>21.689589849444179</v>
       </c>
       <c r="T9">
-        <v>-32195</v>
+        <v>22.714968277823587</v>
       </c>
       <c r="U9">
-        <v>-30669</v>
+        <v>24.634595014446404</v>
       </c>
       <c r="V9">
-        <v>-29154</v>
+        <v>24.410120627180028</v>
       </c>
       <c r="W9">
-        <v>-27848</v>
+        <v>24.84379505656565</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -19899,67 +19446,67 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
+        <v>118</v>
+      </c>
+      <c r="D10">
+        <v>3513642500</v>
       </c>
       <c r="E10">
-        <v>69.225999999999999</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
+        <v>3927651500</v>
+      </c>
+      <c r="F10">
+        <v>4309667800</v>
+      </c>
+      <c r="G10">
+        <v>4372650800</v>
+      </c>
+      <c r="H10">
+        <v>4782759800</v>
+      </c>
+      <c r="I10">
+        <v>5072668900</v>
       </c>
       <c r="J10">
-        <v>61.741</v>
+        <v>5069825400</v>
       </c>
       <c r="K10">
-        <v>61.484000000000002</v>
+        <v>6728569900</v>
       </c>
       <c r="L10">
-        <v>60.575000000000003</v>
+        <v>8088355600</v>
       </c>
       <c r="M10">
-        <v>59.14</v>
+        <v>5864477800</v>
       </c>
       <c r="N10">
-        <v>59.298000000000002</v>
+        <v>4999118200</v>
       </c>
       <c r="O10">
-        <v>58.417999999999999</v>
+        <v>5823311200</v>
       </c>
       <c r="P10">
-        <v>58.573</v>
+        <v>5883435100</v>
       </c>
       <c r="Q10">
-        <v>56.774000000000001</v>
+        <v>5686088300</v>
       </c>
       <c r="R10">
-        <v>57.686999999999998</v>
+        <v>6162785800</v>
       </c>
       <c r="S10">
-        <v>57.265000000000001</v>
+        <v>6274568000</v>
       </c>
       <c r="T10">
-        <v>55.195999999999998</v>
+        <v>6874709000</v>
       </c>
       <c r="U10">
-        <v>54.58</v>
+        <v>7834473000</v>
       </c>
       <c r="V10">
-        <v>54.182000000000002</v>
+        <v>8285227000.000001</v>
       </c>
       <c r="W10">
-        <v>53.338000000000001</v>
+        <v>8890322000</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -19970,13 +19517,13 @@
         <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
       </c>
-      <c r="E11">
-        <v>57.305999999999997</v>
+      <c r="E11" t="s">
+        <v>68</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -19990,47 +19537,47 @@
       <c r="I11" t="s">
         <v>68</v>
       </c>
-      <c r="J11">
-        <v>63.021999999999998</v>
-      </c>
-      <c r="K11">
-        <v>28.291</v>
-      </c>
-      <c r="L11">
-        <v>30.558</v>
-      </c>
-      <c r="M11">
-        <v>29.85</v>
-      </c>
-      <c r="N11">
-        <v>29.282</v>
-      </c>
-      <c r="O11">
-        <v>27.497</v>
-      </c>
-      <c r="P11">
-        <v>27.824999999999999</v>
-      </c>
-      <c r="Q11">
-        <v>27.219000000000001</v>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>68</v>
       </c>
       <c r="R11">
-        <v>25.338999999999999</v>
+        <v>0.550490021705627</v>
       </c>
       <c r="S11">
-        <v>25.375</v>
+        <v>0.82449001073837302</v>
       </c>
       <c r="T11">
-        <v>24.344000000000001</v>
+        <v>1.6755399703979501</v>
       </c>
       <c r="U11">
-        <v>23.872</v>
+        <v>1.3244878053665201</v>
       </c>
       <c r="V11">
-        <v>21.145</v>
+        <v>1.12071001529694</v>
       </c>
       <c r="W11">
-        <v>22.010999999999999</v>
+        <v>1.12487351894379</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -20041,13 +19588,13 @@
         <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="E12">
-        <v>68.05</v>
+      <c r="E12" t="s">
+        <v>68</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -20061,47 +19608,47 @@
       <c r="I12" t="s">
         <v>68</v>
       </c>
-      <c r="J12">
-        <v>72.945999999999998</v>
-      </c>
-      <c r="K12">
-        <v>79.668000000000006</v>
-      </c>
-      <c r="L12">
-        <v>80.465000000000003</v>
-      </c>
-      <c r="M12">
-        <v>81.256</v>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
       </c>
       <c r="N12">
-        <v>79.745000000000005</v>
+        <v>31.113430023193398</v>
       </c>
       <c r="O12">
-        <v>83.706999999999994</v>
-      </c>
-      <c r="P12">
-        <v>79.757999999999996</v>
-      </c>
-      <c r="Q12">
-        <v>81.242000000000004</v>
+        <v>32.742359161377003</v>
+      </c>
+      <c r="P12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>68</v>
       </c>
       <c r="R12">
-        <v>81.385000000000005</v>
+        <v>59.573890686035199</v>
       </c>
       <c r="S12">
-        <v>78.957999999999998</v>
+        <v>60.8295707702637</v>
       </c>
       <c r="T12">
-        <v>78.921999999999997</v>
+        <v>62.3772583007812</v>
       </c>
       <c r="U12">
-        <v>77.475999999999999</v>
+        <v>61.717128753662102</v>
       </c>
       <c r="V12">
-        <v>76.563999999999993</v>
+        <v>63.506538391113303</v>
       </c>
       <c r="W12">
-        <v>74.596999999999994</v>
+        <v>62.900218963622997</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -20112,67 +19659,67 @@
         <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13">
-        <v>29.727248601710542</v>
-      </c>
-      <c r="E13">
-        <v>30.979632775485349</v>
-      </c>
-      <c r="F13">
-        <v>30.822118295282745</v>
-      </c>
-      <c r="G13">
-        <v>29.689360528506032</v>
-      </c>
-      <c r="H13">
-        <v>29.895710112686487</v>
-      </c>
-      <c r="I13">
-        <v>28.73978220032684</v>
-      </c>
-      <c r="J13">
-        <v>25.276816599680629</v>
-      </c>
-      <c r="K13">
-        <v>29.841281246991674</v>
-      </c>
-      <c r="L13">
-        <v>31.695016000733812</v>
-      </c>
-      <c r="M13">
-        <v>23.648498803178597</v>
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
       </c>
       <c r="N13">
-        <v>19.708762239122024</v>
+        <v>9.2254295349121094</v>
       </c>
       <c r="O13">
-        <v>22.199889582132954</v>
-      </c>
-      <c r="P13">
-        <v>22.436411587028278</v>
-      </c>
-      <c r="Q13">
-        <v>21.233580546727453</v>
+        <v>9.8478603363037092</v>
+      </c>
+      <c r="P13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>68</v>
       </c>
       <c r="R13">
-        <v>22.525864222317473</v>
+        <v>11.300840377807599</v>
       </c>
       <c r="S13">
-        <v>21.689589849444179</v>
+        <v>10.5173501968384</v>
       </c>
       <c r="T13">
-        <v>22.714968277823587</v>
+        <v>11.0858602523804</v>
       </c>
       <c r="U13">
-        <v>24.634595014446404</v>
+        <v>7.1863975524902299</v>
       </c>
       <c r="V13">
-        <v>24.410120627180028</v>
+        <v>10.8351097106934</v>
       </c>
       <c r="W13">
-        <v>24.84379505656565</v>
+        <v>6.9968748092651403</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -20183,67 +19730,67 @@
         <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14">
-        <v>3513642500</v>
-      </c>
-      <c r="E14">
-        <v>3927651500</v>
-      </c>
-      <c r="F14">
-        <v>4309667800</v>
-      </c>
-      <c r="G14">
-        <v>4372650800</v>
-      </c>
-      <c r="H14">
-        <v>4782759800</v>
-      </c>
-      <c r="I14">
-        <v>5072668900</v>
-      </c>
-      <c r="J14">
-        <v>5069825400</v>
-      </c>
-      <c r="K14">
-        <v>6728569900</v>
-      </c>
-      <c r="L14">
-        <v>8088355600</v>
-      </c>
-      <c r="M14">
-        <v>5864477800</v>
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" t="s">
+        <v>68</v>
       </c>
       <c r="N14">
-        <v>4999118200</v>
+        <v>73.099632263183594</v>
       </c>
       <c r="O14">
-        <v>5823311200</v>
-      </c>
-      <c r="P14">
-        <v>5883435100</v>
-      </c>
-      <c r="Q14">
-        <v>5686088300</v>
+        <v>74.349716186523395</v>
+      </c>
+      <c r="P14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>68</v>
       </c>
       <c r="R14">
-        <v>6162785800</v>
+        <v>78.045379638671903</v>
       </c>
       <c r="S14">
-        <v>6274568000</v>
+        <v>79.873451232910199</v>
       </c>
       <c r="T14">
-        <v>6874709000</v>
+        <v>83.749107360839801</v>
       </c>
       <c r="U14">
-        <v>7834473000</v>
+        <v>81.959701538085895</v>
       </c>
       <c r="V14">
-        <v>8285227000.000001</v>
+        <v>87.606781005859403</v>
       </c>
       <c r="W14">
-        <v>8890322000</v>
+        <v>82.1134033203125</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -20254,7 +19801,7 @@
         <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
@@ -20286,11 +19833,11 @@
       <c r="M15" t="s">
         <v>68</v>
       </c>
-      <c r="N15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15" t="s">
-        <v>68</v>
+      <c r="N15">
+        <v>9.2254295349121094</v>
+      </c>
+      <c r="O15">
+        <v>9.8478603363037092</v>
       </c>
       <c r="P15" t="s">
         <v>68</v>
@@ -20299,22 +19846,22 @@
         <v>68</v>
       </c>
       <c r="R15">
-        <v>0.550490021705627</v>
+        <v>11.300840377807599</v>
       </c>
       <c r="S15">
-        <v>0.82449001073837302</v>
+        <v>11.4720802307129</v>
       </c>
       <c r="T15">
-        <v>1.6755399703979501</v>
+        <v>11.8764600753784</v>
       </c>
       <c r="U15">
-        <v>1.3244878053665201</v>
+        <v>8.5240726470947301</v>
       </c>
       <c r="V15">
-        <v>1.12071001529694</v>
+        <v>11.8616600036621</v>
       </c>
       <c r="W15">
-        <v>1.12487351894379</v>
+        <v>8.04687404632568</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -20325,7 +19872,7 @@
         <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
@@ -20358,10 +19905,10 @@
         <v>68</v>
       </c>
       <c r="N16">
-        <v>31.113430023193398</v>
+        <v>56.919528961181598</v>
       </c>
       <c r="O16">
-        <v>32.742359161377003</v>
+        <v>56.832649230957003</v>
       </c>
       <c r="P16" t="s">
         <v>68</v>
@@ -20369,23 +19916,23 @@
       <c r="Q16" t="s">
         <v>68</v>
       </c>
-      <c r="R16">
-        <v>59.573890686035199</v>
+      <c r="R16" t="s">
+        <v>68</v>
       </c>
       <c r="S16">
-        <v>60.8295707702637</v>
+        <v>60.898494720458999</v>
       </c>
       <c r="T16">
-        <v>62.3772583007812</v>
+        <v>81.165557861328097</v>
       </c>
       <c r="U16">
-        <v>61.717128753662102</v>
+        <v>62.306121826171903</v>
       </c>
       <c r="V16">
-        <v>63.506538391113303</v>
+        <v>81.362892150878906</v>
       </c>
       <c r="W16">
-        <v>62.900218963622997</v>
+        <v>63.3923149108887</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -20396,7 +19943,7 @@
         <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
@@ -20429,10 +19976,10 @@
         <v>68</v>
       </c>
       <c r="N17">
-        <v>9.2254295349121094</v>
+        <v>5.7286801338195801</v>
       </c>
       <c r="O17">
-        <v>9.8478603363037092</v>
+        <v>6.1705298423767099</v>
       </c>
       <c r="P17" t="s">
         <v>68</v>
@@ -20441,19 +19988,19 @@
         <v>68</v>
       </c>
       <c r="R17">
-        <v>11.300840377807599</v>
+        <v>7.8253698348998997</v>
       </c>
       <c r="S17">
-        <v>10.5173501968384</v>
+        <v>7.5491600036621103</v>
       </c>
       <c r="T17">
-        <v>11.0858602523804</v>
+        <v>8.3772802352905291</v>
       </c>
       <c r="U17">
         <v>7.1863975524902299</v>
       </c>
       <c r="V17">
-        <v>10.8351097106934</v>
+        <v>7.7476501464843803</v>
       </c>
       <c r="W17">
         <v>6.9968748092651403</v>
@@ -20467,7 +20014,7 @@
         <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
@@ -20499,11 +20046,11 @@
       <c r="M18" t="s">
         <v>68</v>
       </c>
-      <c r="N18">
-        <v>73.099632263183594</v>
-      </c>
-      <c r="O18">
-        <v>74.349716186523395</v>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
       </c>
       <c r="P18" t="s">
         <v>68</v>
@@ -20511,23 +20058,23 @@
       <c r="Q18" t="s">
         <v>68</v>
       </c>
-      <c r="R18">
-        <v>78.045379638671903</v>
+      <c r="R18" t="s">
+        <v>68</v>
       </c>
       <c r="S18">
-        <v>79.873451232910199</v>
+        <v>9.8360002040862995E-2</v>
       </c>
       <c r="T18">
-        <v>83.749107360839801</v>
+        <v>0.16581000387668601</v>
       </c>
       <c r="U18">
-        <v>81.959701538085895</v>
+        <v>0.162282004952431</v>
       </c>
       <c r="V18">
-        <v>87.606781005859403</v>
+        <v>0.19050000607967399</v>
       </c>
       <c r="W18">
-        <v>82.1134033203125</v>
+        <v>0.231822639703751</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -20538,67 +20085,67 @@
         <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" t="s">
-        <v>68</v>
+        <v>144</v>
+      </c>
+      <c r="D19">
+        <v>74.495999999999995</v>
+      </c>
+      <c r="E19">
+        <v>75.06</v>
+      </c>
+      <c r="F19">
+        <v>74.611999999999995</v>
+      </c>
+      <c r="G19">
+        <v>75.781999999999996</v>
+      </c>
+      <c r="H19">
+        <v>76.132999999999996</v>
+      </c>
+      <c r="I19">
+        <v>75.42</v>
+      </c>
+      <c r="J19">
+        <v>76.247</v>
+      </c>
+      <c r="K19">
+        <v>76.161000000000001</v>
+      </c>
+      <c r="L19">
+        <v>76.837999999999994</v>
+      </c>
+      <c r="M19">
+        <v>76.975999999999999</v>
       </c>
       <c r="N19">
-        <v>9.2254295349121094</v>
+        <v>77.072999999999993</v>
       </c>
       <c r="O19">
-        <v>9.8478603363037092</v>
-      </c>
-      <c r="P19" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>68</v>
+        <v>77.007000000000005</v>
+      </c>
+      <c r="P19">
+        <v>77.191000000000003</v>
+      </c>
+      <c r="Q19">
+        <v>76.33</v>
       </c>
       <c r="R19">
-        <v>11.300840377807599</v>
+        <v>75.659000000000006</v>
       </c>
       <c r="S19">
-        <v>11.4720802307129</v>
+        <v>76.182000000000002</v>
       </c>
       <c r="T19">
-        <v>11.8764600753784</v>
+        <v>76.808000000000007</v>
       </c>
       <c r="U19">
-        <v>8.5240726470947301</v>
+        <v>76.935000000000002</v>
       </c>
       <c r="V19">
-        <v>11.8616600036621</v>
+        <v>77.093000000000004</v>
       </c>
       <c r="W19">
-        <v>8.04687404632568</v>
+        <v>77.241</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -20609,78 +20156,78 @@
         <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" t="s">
-        <v>68</v>
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="E20">
+        <v>1.232</v>
+      </c>
+      <c r="F20">
+        <v>1.23</v>
+      </c>
+      <c r="G20">
+        <v>1.22</v>
+      </c>
+      <c r="H20">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="I20">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="J20">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="K20">
+        <v>1.252</v>
+      </c>
+      <c r="L20">
+        <v>1.276</v>
+      </c>
+      <c r="M20">
+        <v>1.2989999999999999</v>
       </c>
       <c r="N20">
-        <v>56.919528961181598</v>
+        <v>1.276</v>
       </c>
       <c r="O20">
-        <v>56.832649230957003</v>
-      </c>
-      <c r="P20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>68</v>
-      </c>
-      <c r="R20" t="s">
-        <v>68</v>
+        <v>1.216</v>
+      </c>
+      <c r="P20">
+        <v>1.29</v>
+      </c>
+      <c r="Q20">
+        <v>1.276</v>
+      </c>
+      <c r="R20">
+        <v>1.262</v>
       </c>
       <c r="S20">
-        <v>60.898494720458999</v>
+        <v>1.2889999999999999</v>
       </c>
       <c r="T20">
-        <v>81.165557861328097</v>
+        <v>1.3240000000000001</v>
       </c>
       <c r="U20">
-        <v>62.306121826171903</v>
+        <v>1.355</v>
       </c>
       <c r="V20">
-        <v>81.362892150878906</v>
+        <v>1.3839999999999999</v>
       </c>
       <c r="W20">
-        <v>63.3923149108887</v>
+        <v>1.3680000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
@@ -20712,11 +20259,11 @@
       <c r="M21" t="s">
         <v>68</v>
       </c>
-      <c r="N21">
-        <v>5.7286801338195801</v>
-      </c>
-      <c r="O21">
-        <v>6.1705298423767099</v>
+      <c r="N21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
       </c>
       <c r="P21" t="s">
         <v>68</v>
@@ -20724,37 +20271,37 @@
       <c r="Q21" t="s">
         <v>68</v>
       </c>
-      <c r="R21">
-        <v>7.8253698348998997</v>
-      </c>
-      <c r="S21">
-        <v>7.5491600036621103</v>
-      </c>
-      <c r="T21">
-        <v>8.3772802352905291</v>
-      </c>
-      <c r="U21">
-        <v>7.1863975524902299</v>
-      </c>
-      <c r="V21">
-        <v>7.7476501464843803</v>
-      </c>
-      <c r="W21">
-        <v>6.9968748092651403</v>
+      <c r="R21" t="s">
+        <v>68</v>
+      </c>
+      <c r="S21" t="s">
+        <v>68</v>
+      </c>
+      <c r="T21" t="s">
+        <v>68</v>
+      </c>
+      <c r="U21" t="s">
+        <v>68</v>
+      </c>
+      <c r="V21" t="s">
+        <v>68</v>
+      </c>
+      <c r="W21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>45.965000000000003</v>
       </c>
       <c r="E22" t="s">
         <v>68</v>
@@ -20789,171 +20336,171 @@
       <c r="O22" t="s">
         <v>68</v>
       </c>
-      <c r="P22" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>68</v>
-      </c>
-      <c r="R22" t="s">
-        <v>68</v>
+      <c r="P22">
+        <v>35.878</v>
+      </c>
+      <c r="Q22">
+        <v>35.765999999999998</v>
+      </c>
+      <c r="R22">
+        <v>30.233000000000001</v>
       </c>
       <c r="S22">
-        <v>9.8360002040862995E-2</v>
+        <v>31.678999999999998</v>
       </c>
       <c r="T22">
-        <v>0.16581000387668601</v>
+        <v>30.263999999999999</v>
       </c>
       <c r="U22">
-        <v>0.162282004952431</v>
+        <v>27.559000000000001</v>
       </c>
       <c r="V22">
-        <v>0.19050000607967399</v>
+        <v>29.693000000000001</v>
       </c>
       <c r="W22">
-        <v>0.231822639703751</v>
+        <v>32.612000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>74.495999999999995</v>
+        <v>11.629</v>
       </c>
       <c r="E23">
-        <v>75.06</v>
+        <v>57</v>
       </c>
       <c r="F23">
-        <v>74.611999999999995</v>
+        <v>55</v>
       </c>
       <c r="G23">
-        <v>75.781999999999996</v>
+        <v>49.7</v>
       </c>
       <c r="H23">
-        <v>76.132999999999996</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="I23">
-        <v>75.42</v>
+        <v>41.4</v>
       </c>
       <c r="J23">
-        <v>76.247</v>
+        <v>44.9</v>
       </c>
       <c r="K23">
-        <v>76.161000000000001</v>
+        <v>46.3</v>
       </c>
       <c r="L23">
-        <v>76.837999999999994</v>
+        <v>47.5</v>
       </c>
       <c r="M23">
-        <v>76.975999999999999</v>
-      </c>
-      <c r="N23">
-        <v>77.072999999999993</v>
-      </c>
-      <c r="O23">
-        <v>77.007000000000005</v>
+        <v>45.4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
       </c>
       <c r="P23">
-        <v>77.191000000000003</v>
+        <v>30.879000000000001</v>
       </c>
       <c r="Q23">
-        <v>76.33</v>
+        <v>29.765999999999998</v>
       </c>
       <c r="R23">
-        <v>75.659000000000006</v>
+        <v>35.264000000000003</v>
       </c>
       <c r="S23">
-        <v>76.182000000000002</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="T23">
-        <v>76.808000000000007</v>
+        <v>27.491</v>
       </c>
       <c r="U23">
-        <v>76.935000000000002</v>
+        <v>30.344000000000001</v>
       </c>
       <c r="V23">
-        <v>77.093000000000004</v>
+        <v>27.760999999999999</v>
       </c>
       <c r="W23">
-        <v>77.241</v>
+        <v>25.068999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>1.2829999999999999</v>
+        <v>-9176</v>
       </c>
       <c r="E24">
-        <v>1.232</v>
+        <v>-1995</v>
       </c>
       <c r="F24">
-        <v>1.23</v>
+        <v>-29565</v>
       </c>
       <c r="G24">
-        <v>1.22</v>
+        <v>-27077</v>
       </c>
       <c r="H24">
-        <v>1.2190000000000001</v>
+        <v>-30715</v>
       </c>
       <c r="I24">
-        <v>1.2030000000000001</v>
+        <v>-33861</v>
       </c>
       <c r="J24">
-        <v>1.1859999999999999</v>
+        <v>-32364</v>
       </c>
       <c r="K24">
-        <v>1.252</v>
+        <v>-32547</v>
       </c>
       <c r="L24">
-        <v>1.276</v>
+        <v>-34210</v>
       </c>
       <c r="M24">
-        <v>1.2989999999999999</v>
+        <v>-33429</v>
       </c>
       <c r="N24">
-        <v>1.276</v>
+        <v>-31889</v>
       </c>
       <c r="O24">
-        <v>1.216</v>
+        <v>-3033</v>
       </c>
       <c r="P24">
-        <v>1.29</v>
+        <v>-15323</v>
       </c>
       <c r="Q24">
-        <v>1.276</v>
+        <v>-40468</v>
       </c>
       <c r="R24">
-        <v>1.262</v>
+        <v>-56637</v>
       </c>
       <c r="S24">
-        <v>1.2889999999999999</v>
+        <v>-14819</v>
       </c>
       <c r="T24">
-        <v>1.3240000000000001</v>
+        <v>-31383</v>
       </c>
       <c r="U24">
-        <v>1.355</v>
+        <v>-33495</v>
       </c>
       <c r="V24">
-        <v>1.3839999999999999</v>
+        <v>-34137</v>
       </c>
       <c r="W24">
-        <v>1.3680000000000001</v>
+        <v>-33469</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -20964,10 +20511,10 @@
         <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
+        <v>103</v>
+      </c>
+      <c r="D25">
+        <v>61.018999999999998</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -21002,29 +20549,29 @@
       <c r="O25" t="s">
         <v>68</v>
       </c>
-      <c r="P25" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>68</v>
-      </c>
-      <c r="R25" t="s">
-        <v>68</v>
-      </c>
-      <c r="S25" t="s">
-        <v>68</v>
-      </c>
-      <c r="T25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U25" t="s">
-        <v>68</v>
-      </c>
-      <c r="V25" t="s">
-        <v>68</v>
-      </c>
-      <c r="W25" t="s">
-        <v>68</v>
+      <c r="P25">
+        <v>50.438000000000002</v>
+      </c>
+      <c r="Q25">
+        <v>51.765999999999998</v>
+      </c>
+      <c r="R25">
+        <v>52.223999999999997</v>
+      </c>
+      <c r="S25">
+        <v>45.442</v>
+      </c>
+      <c r="T25">
+        <v>45.76</v>
+      </c>
+      <c r="U25">
+        <v>50.9</v>
+      </c>
+      <c r="V25">
+        <v>50.363</v>
+      </c>
+      <c r="W25">
+        <v>46.167000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -21035,10 +20582,10 @@
         <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>45.965000000000003</v>
+        <v>37.277999999999999</v>
       </c>
       <c r="E26" t="s">
         <v>68</v>
@@ -21074,28 +20621,28 @@
         <v>68</v>
       </c>
       <c r="P26">
-        <v>35.878</v>
+        <v>15.845000000000001</v>
       </c>
       <c r="Q26">
-        <v>35.765999999999998</v>
+        <v>18.757000000000001</v>
       </c>
       <c r="R26">
-        <v>30.233000000000001</v>
+        <v>18.599</v>
       </c>
       <c r="S26">
-        <v>31.678999999999998</v>
+        <v>15.699</v>
       </c>
       <c r="T26">
-        <v>30.263999999999999</v>
+        <v>16.785</v>
       </c>
       <c r="U26">
-        <v>27.559000000000001</v>
+        <v>16.989000000000001</v>
       </c>
       <c r="V26">
-        <v>29.693000000000001</v>
+        <v>14.28</v>
       </c>
       <c r="W26">
-        <v>32.612000000000002</v>
+        <v>15.372</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -21106,37 +20653,37 @@
         <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="D27">
-        <v>11.629</v>
-      </c>
-      <c r="E27">
-        <v>57</v>
-      </c>
-      <c r="F27">
-        <v>55</v>
-      </c>
-      <c r="G27">
-        <v>49.7</v>
-      </c>
-      <c r="H27">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="I27">
-        <v>41.4</v>
-      </c>
-      <c r="J27">
-        <v>44.9</v>
-      </c>
-      <c r="K27">
-        <v>46.3</v>
-      </c>
-      <c r="L27">
-        <v>47.5</v>
-      </c>
-      <c r="M27">
-        <v>45.4</v>
+        <v>83.05</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" t="s">
+        <v>68</v>
       </c>
       <c r="N27" t="s">
         <v>68</v>
@@ -21145,28 +20692,28 @@
         <v>68</v>
       </c>
       <c r="P27">
-        <v>30.879000000000001</v>
+        <v>69.581999999999994</v>
       </c>
       <c r="Q27">
-        <v>29.765999999999998</v>
+        <v>73.024000000000001</v>
       </c>
       <c r="R27">
-        <v>35.264000000000003</v>
+        <v>70.216999999999999</v>
       </c>
       <c r="S27">
-        <v>32.840000000000003</v>
+        <v>63.195</v>
       </c>
       <c r="T27">
-        <v>27.491</v>
+        <v>65.13</v>
       </c>
       <c r="U27">
-        <v>30.344000000000001</v>
+        <v>71.55</v>
       </c>
       <c r="V27">
-        <v>27.760999999999999</v>
+        <v>79.962000000000003</v>
       </c>
       <c r="W27">
-        <v>25.068999999999999</v>
+        <v>77.022999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -21177,7 +20724,7 @@
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
@@ -21203,41 +20750,41 @@
       <c r="K28" t="s">
         <v>68</v>
       </c>
-      <c r="L28" t="s">
-        <v>68</v>
-      </c>
-      <c r="M28" t="s">
-        <v>68</v>
-      </c>
-      <c r="N28" t="s">
-        <v>68</v>
-      </c>
-      <c r="O28" t="s">
-        <v>68</v>
-      </c>
-      <c r="P28" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>68</v>
-      </c>
-      <c r="R28" t="s">
-        <v>68</v>
-      </c>
-      <c r="S28" t="s">
-        <v>68</v>
-      </c>
-      <c r="T28" t="s">
-        <v>68</v>
-      </c>
-      <c r="U28" t="s">
-        <v>68</v>
-      </c>
-      <c r="V28" t="s">
-        <v>68</v>
-      </c>
-      <c r="W28" t="s">
-        <v>68</v>
+      <c r="L28">
+        <v>37.283677432066213</v>
+      </c>
+      <c r="M28">
+        <v>32.619616274023031</v>
+      </c>
+      <c r="N28">
+        <v>33.128487046606416</v>
+      </c>
+      <c r="O28">
+        <v>36.057344491894469</v>
+      </c>
+      <c r="P28">
+        <v>31.901721686107571</v>
+      </c>
+      <c r="Q28">
+        <v>29.997858550771276</v>
+      </c>
+      <c r="R28">
+        <v>27.846000869468057</v>
+      </c>
+      <c r="S28">
+        <v>30.432468640423881</v>
+      </c>
+      <c r="T28">
+        <v>33.522000254750864</v>
+      </c>
+      <c r="U28">
+        <v>34.692649488960512</v>
+      </c>
+      <c r="V28">
+        <v>36.29454212914866</v>
+      </c>
+      <c r="W28">
+        <v>34.558199545022426</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -21248,67 +20795,67 @@
         <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29">
-        <v>-9176</v>
-      </c>
-      <c r="E29">
-        <v>-1995</v>
-      </c>
-      <c r="F29">
-        <v>-29565</v>
-      </c>
-      <c r="G29">
-        <v>-27077</v>
-      </c>
-      <c r="H29">
-        <v>-30715</v>
-      </c>
-      <c r="I29">
-        <v>-33861</v>
-      </c>
-      <c r="J29">
-        <v>-32364</v>
-      </c>
-      <c r="K29">
-        <v>-32547</v>
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" t="s">
+        <v>68</v>
       </c>
       <c r="L29">
-        <v>-34210</v>
+        <v>1318947000</v>
       </c>
       <c r="M29">
-        <v>-33429</v>
+        <v>1177712000</v>
       </c>
       <c r="N29">
-        <v>-31889</v>
+        <v>1335406000</v>
       </c>
       <c r="O29">
-        <v>-3033</v>
+        <v>1642738000</v>
       </c>
       <c r="P29">
-        <v>-15323</v>
+        <v>1530413000</v>
       </c>
       <c r="Q29">
-        <v>-40468</v>
+        <v>1521291000</v>
       </c>
       <c r="R29">
-        <v>-56637</v>
+        <v>1482826000</v>
       </c>
       <c r="S29">
-        <v>-14819</v>
+        <v>1726867000</v>
       </c>
       <c r="T29">
-        <v>-31383</v>
+        <v>2023814000</v>
       </c>
       <c r="U29">
-        <v>-33495</v>
+        <v>2205223000</v>
       </c>
       <c r="V29">
-        <v>-34137</v>
+        <v>2421398000</v>
       </c>
       <c r="W29">
-        <v>-33469</v>
+        <v>2438486000</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -21319,67 +20866,67 @@
         <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D30">
-        <v>61.018999999999998</v>
-      </c>
-      <c r="E30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" t="s">
-        <v>68</v>
-      </c>
-      <c r="M30" t="s">
-        <v>68</v>
-      </c>
-      <c r="N30" t="s">
-        <v>68</v>
-      </c>
-      <c r="O30" t="s">
-        <v>68</v>
+        <v>74.072000000000003</v>
+      </c>
+      <c r="E30">
+        <v>74.394000000000005</v>
+      </c>
+      <c r="F30">
+        <v>74.676000000000002</v>
+      </c>
+      <c r="G30">
+        <v>74.968000000000004</v>
+      </c>
+      <c r="H30">
+        <v>75.304000000000002</v>
+      </c>
+      <c r="I30">
+        <v>75.616</v>
+      </c>
+      <c r="J30">
+        <v>75.635999999999996</v>
+      </c>
+      <c r="K30">
+        <v>76.516000000000005</v>
+      </c>
+      <c r="L30">
+        <v>77.391999999999996</v>
+      </c>
+      <c r="M30">
+        <v>77.665000000000006</v>
+      </c>
+      <c r="N30">
+        <v>77.63</v>
+      </c>
+      <c r="O30">
+        <v>77.739999999999995</v>
       </c>
       <c r="P30">
-        <v>50.438000000000002</v>
+        <v>78.28</v>
       </c>
       <c r="Q30">
-        <v>51.765999999999998</v>
+        <v>78.587000000000003</v>
       </c>
       <c r="R30">
-        <v>52.223999999999997</v>
+        <v>78.88</v>
       </c>
       <c r="S30">
-        <v>45.442</v>
+        <v>78.921999999999997</v>
       </c>
       <c r="T30">
-        <v>45.76</v>
+        <v>78.980999999999995</v>
       </c>
       <c r="U30">
-        <v>50.9</v>
+        <v>78.783000000000001</v>
       </c>
       <c r="V30">
-        <v>50.363</v>
+        <v>78.695999999999998</v>
       </c>
       <c r="W30">
-        <v>46.167000000000002</v>
+        <v>79.022000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -21390,422 +20937,422 @@
         <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D31">
-        <v>37.277999999999999</v>
-      </c>
-      <c r="E31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" t="s">
-        <v>68</v>
-      </c>
-      <c r="L31" t="s">
-        <v>68</v>
-      </c>
-      <c r="M31" t="s">
-        <v>68</v>
-      </c>
-      <c r="N31" t="s">
-        <v>68</v>
-      </c>
-      <c r="O31" t="s">
-        <v>68</v>
+        <v>2.66</v>
+      </c>
+      <c r="E31">
+        <v>2.6219999999999999</v>
+      </c>
+      <c r="F31">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="G31">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H31">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="I31">
+        <v>2.609</v>
+      </c>
+      <c r="J31">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="K31">
+        <v>2.3570000000000002</v>
+      </c>
+      <c r="L31">
+        <v>2.444</v>
+      </c>
+      <c r="M31">
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="N31">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="O31">
+        <v>1.992</v>
       </c>
       <c r="P31">
-        <v>15.845000000000001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="Q31">
-        <v>18.757000000000001</v>
+        <v>2.0979999999999999</v>
       </c>
       <c r="R31">
-        <v>18.599</v>
+        <v>1.871</v>
       </c>
       <c r="S31">
-        <v>15.699</v>
+        <v>1.7509999999999999</v>
       </c>
       <c r="T31">
-        <v>16.785</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="U31">
-        <v>16.989000000000001</v>
+        <v>1.649</v>
       </c>
       <c r="V31">
-        <v>14.28</v>
+        <v>1.605</v>
       </c>
       <c r="W31">
-        <v>15.372</v>
+        <v>1.546</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D32">
-        <v>83.05</v>
-      </c>
-      <c r="E32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" t="s">
-        <v>68</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32" t="s">
-        <v>68</v>
-      </c>
-      <c r="L32" t="s">
-        <v>68</v>
-      </c>
-      <c r="M32" t="s">
-        <v>68</v>
-      </c>
-      <c r="N32" t="s">
-        <v>68</v>
-      </c>
-      <c r="O32" t="s">
-        <v>68</v>
+        <v>1365077</v>
+      </c>
+      <c r="E32">
+        <v>1327247</v>
+      </c>
+      <c r="F32">
+        <v>1317631</v>
+      </c>
+      <c r="G32">
+        <v>1324375</v>
+      </c>
+      <c r="H32">
+        <v>1280253</v>
+      </c>
+      <c r="I32">
+        <v>1278113</v>
+      </c>
+      <c r="J32">
+        <v>1358014</v>
+      </c>
+      <c r="K32">
+        <v>1378453</v>
+      </c>
+      <c r="L32">
+        <v>1397558</v>
+      </c>
+      <c r="M32">
+        <v>1424025</v>
+      </c>
+      <c r="N32">
+        <v>1487441</v>
+      </c>
+      <c r="O32">
+        <v>1513085</v>
       </c>
       <c r="P32">
-        <v>69.581999999999994</v>
+        <v>1524520</v>
       </c>
       <c r="Q32">
-        <v>73.024000000000001</v>
+        <v>1536144</v>
       </c>
       <c r="R32">
-        <v>70.216999999999999</v>
+        <v>1626652</v>
       </c>
       <c r="S32">
-        <v>63.195</v>
+        <v>1628800</v>
       </c>
       <c r="T32">
-        <v>65.13</v>
+        <v>1595416</v>
       </c>
       <c r="U32">
-        <v>71.55</v>
+        <v>1525974</v>
       </c>
       <c r="V32">
-        <v>79.962000000000003</v>
+        <v>1465932</v>
       </c>
       <c r="W32">
-        <v>77.022999999999996</v>
+        <v>1487366</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>24.847999999999999</v>
+      </c>
+      <c r="E33">
+        <v>24.773</v>
+      </c>
+      <c r="F33">
+        <v>25.573</v>
+      </c>
+      <c r="G33">
+        <v>25.138000000000002</v>
+      </c>
+      <c r="H33">
+        <v>26.585000000000001</v>
+      </c>
+      <c r="I33">
+        <v>26.443000000000001</v>
+      </c>
+      <c r="J33">
+        <v>23.602</v>
+      </c>
+      <c r="K33">
+        <v>22.853000000000002</v>
       </c>
       <c r="L33">
-        <v>37.283677432066213</v>
+        <v>20.542999999999999</v>
       </c>
       <c r="M33">
-        <v>32.619616274023031</v>
+        <v>21.234000000000002</v>
       </c>
       <c r="N33">
-        <v>33.128487046606416</v>
+        <v>19.452999999999999</v>
       </c>
       <c r="O33">
-        <v>36.057344491894469</v>
+        <v>19.724</v>
       </c>
       <c r="P33">
-        <v>31.901721686107571</v>
+        <v>19.282</v>
       </c>
       <c r="Q33">
-        <v>29.997858550771276</v>
+        <v>18.626999999999999</v>
       </c>
       <c r="R33">
-        <v>27.846000869468057</v>
+        <v>16.844999999999999</v>
       </c>
       <c r="S33">
-        <v>30.432468640423881</v>
+        <v>15.768000000000001</v>
       </c>
       <c r="T33">
-        <v>33.522000254750864</v>
+        <v>16.271999999999998</v>
       </c>
       <c r="U33">
-        <v>34.692649488960512</v>
+        <v>16.922000000000001</v>
       </c>
       <c r="V33">
-        <v>36.29454212914866</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="W33">
-        <v>34.558199545022426</v>
+        <v>17.478999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34" t="s">
-        <v>68</v>
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>8.5389999999999997</v>
+      </c>
+      <c r="E34">
+        <v>7.3659999999999997</v>
+      </c>
+      <c r="F34">
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="G34">
+        <v>6.3780000000000001</v>
+      </c>
+      <c r="H34">
+        <v>6.3739999999999997</v>
+      </c>
+      <c r="I34">
+        <v>5.633</v>
+      </c>
+      <c r="J34">
+        <v>4.26</v>
+      </c>
+      <c r="K34">
+        <v>2.7490000000000001</v>
       </c>
       <c r="L34">
-        <v>1318947000</v>
+        <v>2.097</v>
       </c>
       <c r="M34">
-        <v>1177712000</v>
+        <v>3.024</v>
       </c>
       <c r="N34">
-        <v>1335406000</v>
+        <v>2.972</v>
       </c>
       <c r="O34">
-        <v>1642738000</v>
+        <v>2.677</v>
       </c>
       <c r="P34">
-        <v>1530413000</v>
+        <v>2.19</v>
       </c>
       <c r="Q34">
-        <v>1521291000</v>
+        <v>1.8939999999999999</v>
       </c>
       <c r="R34">
-        <v>1482826000</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="S34">
-        <v>1726867000</v>
+        <v>1.7809999999999999</v>
       </c>
       <c r="T34">
-        <v>2023814000</v>
+        <v>1.591</v>
       </c>
       <c r="U34">
-        <v>2205223000</v>
+        <v>1.6220000000000001</v>
       </c>
       <c r="V34">
-        <v>2421398000</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="W34">
-        <v>2438486000</v>
+        <v>1.502</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="D35">
-        <v>74.072000000000003</v>
+        <v>-44421</v>
       </c>
       <c r="E35">
-        <v>74.394000000000005</v>
+        <v>-46128</v>
       </c>
       <c r="F35">
-        <v>74.676000000000002</v>
+        <v>-46960</v>
       </c>
       <c r="G35">
-        <v>74.968000000000004</v>
+        <v>-49890</v>
       </c>
       <c r="H35">
-        <v>75.304000000000002</v>
+        <v>-40505</v>
       </c>
       <c r="I35">
-        <v>75.616</v>
+        <v>-51269</v>
       </c>
       <c r="J35">
-        <v>75.635999999999996</v>
+        <v>-68092</v>
       </c>
       <c r="K35">
-        <v>76.516000000000005</v>
+        <v>-69289</v>
       </c>
       <c r="L35">
-        <v>77.391999999999996</v>
+        <v>-70166</v>
       </c>
       <c r="M35">
-        <v>77.665000000000006</v>
+        <v>-70926</v>
       </c>
       <c r="N35">
-        <v>77.63</v>
+        <v>-86459</v>
       </c>
       <c r="O35">
-        <v>77.739999999999995</v>
+        <v>-88796</v>
       </c>
       <c r="P35">
-        <v>78.28</v>
+        <v>-91035</v>
       </c>
       <c r="Q35">
-        <v>78.587000000000003</v>
+        <v>-90637</v>
       </c>
       <c r="R35">
-        <v>78.88</v>
+        <v>-67173</v>
       </c>
       <c r="S35">
-        <v>78.921999999999997</v>
+        <v>-59404</v>
       </c>
       <c r="T35">
-        <v>78.980999999999995</v>
+        <v>-51633</v>
       </c>
       <c r="U35">
-        <v>78.783000000000001</v>
+        <v>-43868</v>
       </c>
       <c r="V35">
-        <v>78.695999999999998</v>
+        <v>-36088</v>
       </c>
       <c r="W35">
-        <v>79.022000000000006</v>
+        <v>-28328</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D36">
-        <v>2.66</v>
+        <v>23.946959085887386</v>
       </c>
       <c r="E36">
-        <v>2.6219999999999999</v>
+        <v>23.2823598271446</v>
       </c>
       <c r="F36">
-        <v>2.5329999999999999</v>
+        <v>21.660182467898139</v>
       </c>
       <c r="G36">
-        <v>2.2799999999999998</v>
+        <v>23.177598754480609</v>
       </c>
       <c r="H36">
-        <v>2.4609999999999999</v>
+        <v>26.359150224775224</v>
       </c>
       <c r="I36">
-        <v>2.609</v>
+        <v>30.825563051099543</v>
       </c>
       <c r="J36">
-        <v>2.4289999999999998</v>
+        <v>32.748080618492203</v>
       </c>
       <c r="K36">
-        <v>2.3570000000000002</v>
+        <v>38.105554931686321</v>
       </c>
       <c r="L36">
-        <v>2.444</v>
+        <v>39.227918692984964</v>
       </c>
       <c r="M36">
-        <v>2.4369999999999998</v>
+        <v>23.141897384639829</v>
       </c>
       <c r="N36">
-        <v>2.4260000000000002</v>
+        <v>23.851786593285883</v>
       </c>
       <c r="O36">
-        <v>1.992</v>
+        <v>24.048671425109632</v>
       </c>
       <c r="P36">
-        <v>2.0009999999999999</v>
+        <v>24.198519244333628</v>
       </c>
       <c r="Q36">
-        <v>2.0979999999999999</v>
+        <v>24.938200200022472</v>
       </c>
       <c r="R36">
-        <v>1.871</v>
+        <v>23.782570660056848</v>
       </c>
       <c r="S36">
-        <v>1.7509999999999999</v>
+        <v>24.062090789552744</v>
       </c>
       <c r="T36">
-        <v>1.6579999999999999</v>
+        <v>21.986885323541667</v>
       </c>
       <c r="U36">
-        <v>1.649</v>
+        <v>21.938954212504679</v>
       </c>
       <c r="V36">
-        <v>1.605</v>
+        <v>26.591810670347115</v>
       </c>
       <c r="W36">
-        <v>1.546</v>
+        <v>25.103661882340774</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -21816,67 +21363,67 @@
         <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D37">
-        <v>1365077</v>
+        <v>3836197000</v>
       </c>
       <c r="E37">
-        <v>1327247</v>
+        <v>4435646000</v>
       </c>
       <c r="F37">
-        <v>1317631</v>
+        <v>4885640000</v>
       </c>
       <c r="G37">
-        <v>1324375</v>
+        <v>6401421000</v>
       </c>
       <c r="H37">
-        <v>1280253</v>
+        <v>8443362999.999999</v>
       </c>
       <c r="I37">
-        <v>1278113</v>
+        <v>11606441000</v>
       </c>
       <c r="J37">
-        <v>1358014</v>
+        <v>14656076000</v>
       </c>
       <c r="K37">
-        <v>1378453</v>
+        <v>20359798000</v>
       </c>
       <c r="L37">
-        <v>1397558</v>
+        <v>24682991000</v>
       </c>
       <c r="M37">
-        <v>1424025</v>
+        <v>13984603000</v>
       </c>
       <c r="N37">
-        <v>1487441</v>
+        <v>20578218900</v>
       </c>
       <c r="O37">
-        <v>1513085</v>
+        <v>23753549400</v>
       </c>
       <c r="P37">
-        <v>1524520</v>
+        <v>25524642600</v>
       </c>
       <c r="Q37">
-        <v>1536144</v>
+        <v>29809346600</v>
       </c>
       <c r="R37">
-        <v>1626652</v>
+        <v>31384493000</v>
       </c>
       <c r="S37">
-        <v>1628800</v>
+        <v>35308761400</v>
       </c>
       <c r="T37">
-        <v>1595416</v>
+        <v>34961438500</v>
       </c>
       <c r="U37">
-        <v>1525974</v>
+        <v>38614159400</v>
       </c>
       <c r="V37">
-        <v>1465932</v>
+        <v>50275175900</v>
       </c>
       <c r="W37">
-        <v>1487366</v>
+        <v>51777868900</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -21887,67 +21434,67 @@
         <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="D38">
-        <v>24.847999999999999</v>
+        <v>66.417000000000002</v>
       </c>
       <c r="E38">
-        <v>24.773</v>
+        <v>66.787000000000006</v>
       </c>
       <c r="F38">
-        <v>25.573</v>
+        <v>66.938000000000002</v>
       </c>
       <c r="G38">
-        <v>25.138000000000002</v>
+        <v>67.418999999999997</v>
       </c>
       <c r="H38">
-        <v>26.585000000000001</v>
+        <v>67.861000000000004</v>
       </c>
       <c r="I38">
-        <v>26.443000000000001</v>
+        <v>68.168999999999997</v>
       </c>
       <c r="J38">
-        <v>23.602</v>
+        <v>68.478999999999999</v>
       </c>
       <c r="K38">
-        <v>22.853000000000002</v>
+        <v>68.947000000000003</v>
       </c>
       <c r="L38">
-        <v>20.542999999999999</v>
+        <v>69.394000000000005</v>
       </c>
       <c r="M38">
-        <v>21.234000000000002</v>
+        <v>69.572999999999993</v>
       </c>
       <c r="N38">
-        <v>19.452999999999999</v>
+        <v>69.356999999999999</v>
       </c>
       <c r="O38">
-        <v>19.724</v>
+        <v>69.191999999999993</v>
       </c>
       <c r="P38">
-        <v>19.282</v>
+        <v>69.143000000000001</v>
       </c>
       <c r="Q38">
-        <v>18.626999999999999</v>
+        <v>69.099000000000004</v>
       </c>
       <c r="R38">
-        <v>16.844999999999999</v>
+        <v>69.031000000000006</v>
       </c>
       <c r="S38">
-        <v>15.768000000000001</v>
+        <v>69.239999999999995</v>
       </c>
       <c r="T38">
-        <v>16.271999999999998</v>
+        <v>69.917000000000002</v>
       </c>
       <c r="U38">
-        <v>16.922000000000001</v>
+        <v>70.516000000000005</v>
       </c>
       <c r="V38">
-        <v>17.829999999999998</v>
+        <v>70.492000000000004</v>
       </c>
       <c r="W38">
-        <v>17.478999999999999</v>
+        <v>70.935000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -21958,497 +21505,71 @@
         <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D39">
-        <v>8.5389999999999997</v>
+        <v>1.4990000000000001</v>
       </c>
       <c r="E39">
-        <v>7.3659999999999997</v>
+        <v>1.4630000000000001</v>
       </c>
       <c r="F39">
-        <v>6.8449999999999998</v>
+        <v>1.4370000000000001</v>
       </c>
       <c r="G39">
-        <v>6.3780000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="H39">
-        <v>6.3739999999999997</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="I39">
-        <v>5.633</v>
+        <v>1.5309999999999999</v>
       </c>
       <c r="J39">
-        <v>4.26</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="K39">
-        <v>2.7490000000000001</v>
+        <v>1.5740000000000001</v>
       </c>
       <c r="L39">
-        <v>2.097</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="M39">
-        <v>3.024</v>
+        <v>1.704</v>
       </c>
       <c r="N39">
-        <v>2.972</v>
+        <v>1.698</v>
       </c>
       <c r="O39">
-        <v>2.677</v>
+        <v>1.66</v>
       </c>
       <c r="P39">
-        <v>2.19</v>
+        <v>1.659</v>
       </c>
       <c r="Q39">
-        <v>1.8939999999999999</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="R39">
-        <v>1.4510000000000001</v>
+        <v>1.8220000000000001</v>
       </c>
       <c r="S39">
-        <v>1.7809999999999999</v>
+        <v>1.8680000000000001</v>
       </c>
       <c r="T39">
-        <v>1.591</v>
+        <v>1.89</v>
       </c>
       <c r="U39">
-        <v>1.6220000000000001</v>
+        <v>1.81</v>
       </c>
       <c r="V39">
-        <v>1.2390000000000001</v>
+        <v>1.8089999999999999</v>
       </c>
       <c r="W39">
-        <v>1.502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="E40">
-        <v>7.37</v>
-      </c>
-      <c r="F40">
-        <v>6.84</v>
-      </c>
-      <c r="G40">
-        <v>6.38</v>
-      </c>
-      <c r="H40">
-        <v>6.37</v>
-      </c>
-      <c r="I40">
-        <v>5.63</v>
-      </c>
-      <c r="J40">
-        <v>4.26</v>
-      </c>
-      <c r="K40">
-        <v>2.75</v>
-      </c>
-      <c r="L40">
-        <v>2.1</v>
-      </c>
-      <c r="M40">
-        <v>3.02</v>
-      </c>
-      <c r="N40">
-        <v>2.97</v>
-      </c>
-      <c r="O40">
-        <v>2.68</v>
-      </c>
-      <c r="P40">
-        <v>2.19</v>
-      </c>
-      <c r="Q40">
-        <v>1.89</v>
-      </c>
-      <c r="R40">
-        <v>1.45</v>
-      </c>
-      <c r="S40">
         <v>1.78</v>
       </c>
-      <c r="T40">
-        <v>1.59</v>
-      </c>
-      <c r="U40">
-        <v>1.62</v>
-      </c>
-      <c r="V40">
-        <v>1.24</v>
-      </c>
-      <c r="W40">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>181</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41">
-        <v>-44421</v>
-      </c>
-      <c r="E41">
-        <v>-46128</v>
-      </c>
-      <c r="F41">
-        <v>-46960</v>
-      </c>
-      <c r="G41">
-        <v>-49890</v>
-      </c>
-      <c r="H41">
-        <v>-40505</v>
-      </c>
-      <c r="I41">
-        <v>-51269</v>
-      </c>
-      <c r="J41">
-        <v>-68092</v>
-      </c>
-      <c r="K41">
-        <v>-69289</v>
-      </c>
-      <c r="L41">
-        <v>-70166</v>
-      </c>
-      <c r="M41">
-        <v>-70926</v>
-      </c>
-      <c r="N41">
-        <v>-86459</v>
-      </c>
-      <c r="O41">
-        <v>-88796</v>
-      </c>
-      <c r="P41">
-        <v>-91035</v>
-      </c>
-      <c r="Q41">
-        <v>-90637</v>
-      </c>
-      <c r="R41">
-        <v>-67173</v>
-      </c>
-      <c r="S41">
-        <v>-59404</v>
-      </c>
-      <c r="T41">
-        <v>-51633</v>
-      </c>
-      <c r="U41">
-        <v>-43868</v>
-      </c>
-      <c r="V41">
-        <v>-36088</v>
-      </c>
-      <c r="W41">
-        <v>-28328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42">
-        <v>23.946959085887386</v>
-      </c>
-      <c r="E42">
-        <v>23.2823598271446</v>
-      </c>
-      <c r="F42">
-        <v>21.660182467898139</v>
-      </c>
-      <c r="G42">
-        <v>23.177598754480609</v>
-      </c>
-      <c r="H42">
-        <v>26.359150224775224</v>
-      </c>
-      <c r="I42">
-        <v>30.825563051099543</v>
-      </c>
-      <c r="J42">
-        <v>32.748080618492203</v>
-      </c>
-      <c r="K42">
-        <v>38.105554931686321</v>
-      </c>
-      <c r="L42">
-        <v>39.227918692984964</v>
-      </c>
-      <c r="M42">
-        <v>23.141897384639829</v>
-      </c>
-      <c r="N42">
-        <v>23.851786593285883</v>
-      </c>
-      <c r="O42">
-        <v>24.048671425109632</v>
-      </c>
-      <c r="P42">
-        <v>24.198519244333628</v>
-      </c>
-      <c r="Q42">
-        <v>24.938200200022472</v>
-      </c>
-      <c r="R42">
-        <v>23.782570660056848</v>
-      </c>
-      <c r="S42">
-        <v>24.062090789552744</v>
-      </c>
-      <c r="T42">
-        <v>21.986885323541667</v>
-      </c>
-      <c r="U42">
-        <v>21.938954212504679</v>
-      </c>
-      <c r="V42">
-        <v>26.591810670347115</v>
-      </c>
-      <c r="W42">
-        <v>25.103661882340774</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43">
-        <v>3836197000</v>
-      </c>
-      <c r="E43">
-        <v>4435646000</v>
-      </c>
-      <c r="F43">
-        <v>4885640000</v>
-      </c>
-      <c r="G43">
-        <v>6401421000</v>
-      </c>
-      <c r="H43">
-        <v>8443362999.999999</v>
-      </c>
-      <c r="I43">
-        <v>11606441000</v>
-      </c>
-      <c r="J43">
-        <v>14656076000</v>
-      </c>
-      <c r="K43">
-        <v>20359798000</v>
-      </c>
-      <c r="L43">
-        <v>24682991000</v>
-      </c>
-      <c r="M43">
-        <v>13984603000</v>
-      </c>
-      <c r="N43">
-        <v>20578218900</v>
-      </c>
-      <c r="O43">
-        <v>23753549400</v>
-      </c>
-      <c r="P43">
-        <v>25524642600</v>
-      </c>
-      <c r="Q43">
-        <v>29809346600</v>
-      </c>
-      <c r="R43">
-        <v>31384493000</v>
-      </c>
-      <c r="S43">
-        <v>35308761400</v>
-      </c>
-      <c r="T43">
-        <v>34961438500</v>
-      </c>
-      <c r="U43">
-        <v>38614159400</v>
-      </c>
-      <c r="V43">
-        <v>50275175900</v>
-      </c>
-      <c r="W43">
-        <v>51777868900</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44">
-        <v>66.417000000000002</v>
-      </c>
-      <c r="E44">
-        <v>66.787000000000006</v>
-      </c>
-      <c r="F44">
-        <v>66.938000000000002</v>
-      </c>
-      <c r="G44">
-        <v>67.418999999999997</v>
-      </c>
-      <c r="H44">
-        <v>67.861000000000004</v>
-      </c>
-      <c r="I44">
-        <v>68.168999999999997</v>
-      </c>
-      <c r="J44">
-        <v>68.478999999999999</v>
-      </c>
-      <c r="K44">
-        <v>68.947000000000003</v>
-      </c>
-      <c r="L44">
-        <v>69.394000000000005</v>
-      </c>
-      <c r="M44">
-        <v>69.572999999999993</v>
-      </c>
-      <c r="N44">
-        <v>69.356999999999999</v>
-      </c>
-      <c r="O44">
-        <v>69.191999999999993</v>
-      </c>
-      <c r="P44">
-        <v>69.143000000000001</v>
-      </c>
-      <c r="Q44">
-        <v>69.099000000000004</v>
-      </c>
-      <c r="R44">
-        <v>69.031000000000006</v>
-      </c>
-      <c r="S44">
-        <v>69.239999999999995</v>
-      </c>
-      <c r="T44">
-        <v>69.917000000000002</v>
-      </c>
-      <c r="U44">
-        <v>70.516000000000005</v>
-      </c>
-      <c r="V44">
-        <v>70.492000000000004</v>
-      </c>
-      <c r="W44">
-        <v>70.935000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45">
-        <v>1.4990000000000001</v>
-      </c>
-      <c r="E45">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="F45">
-        <v>1.4370000000000001</v>
-      </c>
-      <c r="G45">
-        <v>1.48</v>
-      </c>
-      <c r="H45">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="I45">
-        <v>1.5309999999999999</v>
-      </c>
-      <c r="J45">
-        <v>1.5409999999999999</v>
-      </c>
-      <c r="K45">
-        <v>1.5740000000000001</v>
-      </c>
-      <c r="L45">
-        <v>1.6379999999999999</v>
-      </c>
-      <c r="M45">
-        <v>1.704</v>
-      </c>
-      <c r="N45">
-        <v>1.698</v>
-      </c>
-      <c r="O45">
-        <v>1.66</v>
-      </c>
-      <c r="P45">
-        <v>1.659</v>
-      </c>
-      <c r="Q45">
-        <v>1.6539999999999999</v>
-      </c>
-      <c r="R45">
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="S45">
-        <v>1.8680000000000001</v>
-      </c>
-      <c r="T45">
-        <v>1.89</v>
-      </c>
-      <c r="U45">
-        <v>1.81</v>
-      </c>
-      <c r="V45">
-        <v>1.8089999999999999</v>
-      </c>
-      <c r="W45">
-        <v>1.78</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W45" xr:uid="{6B79EAC1-1D22-4D0A-BBAD-84992765E482}"/>
+  <autoFilter ref="A1:W39" xr:uid="{6B79EAC1-1D22-4D0A-BBAD-84992765E482}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
